--- a/2022-12/PSE-2022-12-27.xlsx
+++ b/2022-12/PSE-2022-12-27.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26024"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DDA5869-98CD-4428-B40E-07EAA37B2535}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D60C96A0-4AAB-4D92-A7F0-DA7BFD981B9D}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="771">
   <si>
     <t>2GO</t>
   </si>
@@ -702,12 +702,6 @@
     <t>DMPA2</t>
   </si>
   <si>
-    <t>DMPI</t>
-  </si>
-  <si>
-    <t>(N/A)</t>
-  </si>
-  <si>
     <t>DMW</t>
   </si>
   <si>
@@ -1552,9 +1546,6 @@
   </si>
   <si>
     <t>16.80K</t>
-  </si>
-  <si>
-    <t>NSTAR</t>
   </si>
   <si>
     <t>NXGEN</t>
@@ -2445,19 +2436,19 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2774,10 +2765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G361"/>
+  <dimension ref="A1:G359"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="A235" sqref="A235:XFD235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5109,109 +5100,109 @@
       <c r="A102" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B102" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>225</v>
+      <c r="B102" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="C102" s="4">
+        <v>6.71</v>
+      </c>
+      <c r="D102" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="E102" s="4">
+        <v>6.71</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>225</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B103" s="4">
-        <v>6.7</v>
+        <v>2.86</v>
       </c>
       <c r="C103" s="4">
-        <v>6.71</v>
+        <v>2.86</v>
       </c>
       <c r="D103" s="4">
-        <v>6.7</v>
+        <v>2.86</v>
       </c>
       <c r="E103" s="4">
-        <v>6.71</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>228</v>
+        <v>2.86</v>
+      </c>
+      <c r="F103" s="4">
+        <v>0</v>
+      </c>
+      <c r="G103" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B104" s="4">
+        <v>7.71</v>
+      </c>
+      <c r="C104" s="4">
+        <v>7.83</v>
+      </c>
+      <c r="D104" s="4">
+        <v>7.62</v>
+      </c>
+      <c r="E104" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="F104" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B104" s="4">
-        <v>2.86</v>
-      </c>
-      <c r="C104" s="4">
-        <v>2.86</v>
-      </c>
-      <c r="D104" s="4">
-        <v>2.86</v>
-      </c>
-      <c r="E104" s="4">
-        <v>2.86</v>
-      </c>
-      <c r="F104" s="4">
-        <v>0</v>
-      </c>
-      <c r="G104" s="4">
-        <v>0</v>
+      <c r="G104" s="4" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B105" s="4">
-        <v>7.71</v>
+        <v>10.25</v>
       </c>
       <c r="C105" s="4">
-        <v>7.83</v>
+        <v>10.25</v>
       </c>
       <c r="D105" s="4">
-        <v>7.62</v>
+        <v>10.25</v>
       </c>
       <c r="E105" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="G105" s="4" t="s">
-        <v>232</v>
+        <v>10.25</v>
+      </c>
+      <c r="F105" s="4">
+        <v>0</v>
+      </c>
+      <c r="G105" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B106" s="4">
-        <v>10.25</v>
+        <v>1.37</v>
       </c>
       <c r="C106" s="4">
-        <v>10.25</v>
+        <v>1.37</v>
       </c>
       <c r="D106" s="4">
-        <v>10.25</v>
+        <v>1.37</v>
       </c>
       <c r="E106" s="4">
-        <v>10.25</v>
+        <v>1.37</v>
       </c>
       <c r="F106" s="4">
         <v>0</v>
@@ -5222,19 +5213,19 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B107" s="4">
-        <v>1.37</v>
+        <v>17</v>
       </c>
       <c r="C107" s="4">
-        <v>1.37</v>
+        <v>17</v>
       </c>
       <c r="D107" s="4">
-        <v>1.37</v>
+        <v>17</v>
       </c>
       <c r="E107" s="4">
-        <v>1.37</v>
+        <v>17</v>
       </c>
       <c r="F107" s="4">
         <v>0</v>
@@ -5245,229 +5236,229 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B108" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C108" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D108" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E108" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F108" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B108" s="4">
-        <v>17</v>
-      </c>
-      <c r="C108" s="4">
-        <v>17</v>
-      </c>
-      <c r="D108" s="4">
-        <v>17</v>
-      </c>
-      <c r="E108" s="4">
-        <v>17</v>
-      </c>
-      <c r="F108" s="4">
-        <v>0</v>
-      </c>
-      <c r="G108" s="4">
-        <v>0</v>
+      <c r="G108" s="4" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B109" s="4">
-        <v>4.4000000000000004</v>
+        <v>2.88</v>
       </c>
       <c r="C109" s="4">
-        <v>4.4000000000000004</v>
+        <v>2.93</v>
       </c>
       <c r="D109" s="4">
-        <v>4.4000000000000004</v>
+        <v>2.85</v>
       </c>
       <c r="E109" s="4">
-        <v>4.4000000000000004</v>
+        <v>2.85</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B110" s="4">
-        <v>2.88</v>
+        <v>96.1</v>
       </c>
       <c r="C110" s="4">
-        <v>2.93</v>
+        <v>96.1</v>
       </c>
       <c r="D110" s="4">
-        <v>2.85</v>
+        <v>96.1</v>
       </c>
       <c r="E110" s="4">
-        <v>2.85</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G110" s="4" t="s">
-        <v>241</v>
+        <v>96.1</v>
+      </c>
+      <c r="F110" s="4">
+        <v>0</v>
+      </c>
+      <c r="G110" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B111" s="4">
+        <v>101.8</v>
+      </c>
+      <c r="C111" s="4">
+        <v>101.8</v>
+      </c>
+      <c r="D111" s="4">
+        <v>99.9</v>
+      </c>
+      <c r="E111" s="4">
+        <v>100</v>
+      </c>
+      <c r="F111" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B111" s="4">
-        <v>96.1</v>
-      </c>
-      <c r="C111" s="4">
-        <v>96.1</v>
-      </c>
-      <c r="D111" s="4">
-        <v>96.1</v>
-      </c>
-      <c r="E111" s="4">
-        <v>96.1</v>
-      </c>
-      <c r="F111" s="4">
-        <v>0</v>
-      </c>
-      <c r="G111" s="4">
-        <v>0</v>
+      <c r="G111" s="4" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B112" s="4">
-        <v>101.8</v>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="C112" s="4">
-        <v>101.8</v>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="D112" s="4">
-        <v>99.9</v>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="E112" s="4">
-        <v>100</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="G112" s="4" t="s">
-        <v>245</v>
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="F112" s="4">
+        <v>0</v>
+      </c>
+      <c r="G112" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B113" s="4">
+        <v>0.188</v>
+      </c>
+      <c r="C113" s="4">
+        <v>0.188</v>
+      </c>
+      <c r="D113" s="4">
+        <v>0.188</v>
+      </c>
+      <c r="E113" s="4">
+        <v>0.188</v>
+      </c>
+      <c r="F113" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B113" s="4">
-        <v>9.4000000000000004E-3</v>
-      </c>
-      <c r="C113" s="4">
-        <v>9.4000000000000004E-3</v>
-      </c>
-      <c r="D113" s="4">
-        <v>9.4000000000000004E-3</v>
-      </c>
-      <c r="E113" s="4">
-        <v>9.4000000000000004E-3</v>
-      </c>
-      <c r="F113" s="4">
-        <v>0</v>
-      </c>
-      <c r="G113" s="4">
-        <v>0</v>
+      <c r="G113" s="4" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B114" s="4">
-        <v>0.188</v>
+        <v>20.75</v>
       </c>
       <c r="C114" s="4">
-        <v>0.188</v>
+        <v>20.75</v>
       </c>
       <c r="D114" s="4">
-        <v>0.188</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="E114" s="4">
-        <v>0.188</v>
+        <v>20.7</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B115" s="4">
-        <v>20.75</v>
+        <v>12.88</v>
       </c>
       <c r="C115" s="4">
-        <v>20.75</v>
+        <v>13.28</v>
       </c>
       <c r="D115" s="4">
-        <v>20.399999999999999</v>
+        <v>12.88</v>
       </c>
       <c r="E115" s="4">
-        <v>20.7</v>
+        <v>13.24</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B116" s="4">
-        <v>12.88</v>
+        <v>0.84</v>
       </c>
       <c r="C116" s="4">
-        <v>13.28</v>
+        <v>0.86</v>
       </c>
       <c r="D116" s="4">
-        <v>12.88</v>
+        <v>0.84</v>
       </c>
       <c r="E116" s="4">
-        <v>13.24</v>
+        <v>0.84</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B117" s="4">
-        <v>0.84</v>
+        <v>0.25</v>
       </c>
       <c r="C117" s="4">
-        <v>0.86</v>
+        <v>0.26</v>
       </c>
       <c r="D117" s="4">
-        <v>0.84</v>
+        <v>0.25</v>
       </c>
       <c r="E117" s="4">
-        <v>0.84</v>
+        <v>0.26</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>257</v>
+        <v>67</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>258</v>
@@ -5478,108 +5469,108 @@
         <v>259</v>
       </c>
       <c r="B118" s="4">
-        <v>0.25</v>
+        <v>6.69</v>
       </c>
       <c r="C118" s="4">
-        <v>0.26</v>
+        <v>6.69</v>
       </c>
       <c r="D118" s="4">
-        <v>0.25</v>
+        <v>6.6</v>
       </c>
       <c r="E118" s="4">
-        <v>0.26</v>
+        <v>6.68</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>67</v>
+        <v>260</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B119" s="4">
-        <v>6.69</v>
+        <v>0.6</v>
       </c>
       <c r="C119" s="4">
-        <v>6.69</v>
+        <v>0.6</v>
       </c>
       <c r="D119" s="4">
-        <v>6.6</v>
+        <v>0.6</v>
       </c>
       <c r="E119" s="4">
-        <v>6.68</v>
+        <v>0.6</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B120" s="4">
-        <v>0.6</v>
+        <v>38.950000000000003</v>
       </c>
       <c r="C120" s="4">
-        <v>0.6</v>
+        <v>38.950000000000003</v>
       </c>
       <c r="D120" s="4">
-        <v>0.6</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="E120" s="4">
-        <v>0.6</v>
+        <v>38.6</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="B121" s="4">
-        <v>38.950000000000003</v>
-      </c>
-      <c r="C121" s="4">
-        <v>38.950000000000003</v>
-      </c>
-      <c r="D121" s="4">
-        <v>38.200000000000003</v>
-      </c>
-      <c r="E121" s="4">
-        <v>38.6</v>
-      </c>
-      <c r="F121" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="G121" s="4" t="s">
-        <v>269</v>
+      <c r="B121" s="5">
+        <v>1011</v>
+      </c>
+      <c r="C121" s="5">
+        <v>1011</v>
+      </c>
+      <c r="D121" s="5">
+        <v>1011</v>
+      </c>
+      <c r="E121" s="5">
+        <v>1011</v>
+      </c>
+      <c r="F121" s="4">
+        <v>0</v>
+      </c>
+      <c r="G121" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B122" s="5">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="C122" s="5">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="D122" s="5">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="E122" s="5">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="F122" s="4">
         <v>0</v>
@@ -5590,111 +5581,111 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B123" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="C123" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="D123" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="E123" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="F123" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="B123" s="5">
-        <v>1005</v>
-      </c>
-      <c r="C123" s="5">
-        <v>1005</v>
-      </c>
-      <c r="D123" s="5">
-        <v>1005</v>
-      </c>
-      <c r="E123" s="5">
-        <v>1005</v>
-      </c>
-      <c r="F123" s="4">
-        <v>0</v>
-      </c>
-      <c r="G123" s="4">
-        <v>0</v>
+      <c r="G123" s="4" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B124" s="4">
-        <v>0.61</v>
+        <v>6.42</v>
       </c>
       <c r="C124" s="4">
-        <v>0.62</v>
+        <v>6.42</v>
       </c>
       <c r="D124" s="4">
-        <v>0.59</v>
+        <v>6.42</v>
       </c>
       <c r="E124" s="4">
-        <v>0.61</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="G124" s="4" t="s">
-        <v>274</v>
+        <v>6.42</v>
+      </c>
+      <c r="F124" s="4">
+        <v>0</v>
+      </c>
+      <c r="G124" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B125" s="4">
+        <v>2.36</v>
+      </c>
+      <c r="C125" s="4">
+        <v>2.36</v>
+      </c>
+      <c r="D125" s="4">
+        <v>2.36</v>
+      </c>
+      <c r="E125" s="4">
+        <v>2.36</v>
+      </c>
+      <c r="F125" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="B125" s="4">
-        <v>6.42</v>
-      </c>
-      <c r="C125" s="4">
-        <v>6.42</v>
-      </c>
-      <c r="D125" s="4">
-        <v>6.42</v>
-      </c>
-      <c r="E125" s="4">
-        <v>6.42</v>
-      </c>
-      <c r="F125" s="4">
-        <v>0</v>
-      </c>
-      <c r="G125" s="4">
-        <v>0</v>
+      <c r="G125" s="4" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B126" s="4">
-        <v>2.36</v>
+        <v>540</v>
       </c>
       <c r="C126" s="4">
-        <v>2.36</v>
+        <v>540</v>
       </c>
       <c r="D126" s="4">
-        <v>2.36</v>
+        <v>540</v>
       </c>
       <c r="E126" s="4">
-        <v>2.36</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="G126" s="4" t="s">
-        <v>278</v>
+        <v>540</v>
+      </c>
+      <c r="F126" s="4">
+        <v>0</v>
+      </c>
+      <c r="G126" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B127" s="4">
-        <v>540</v>
+        <v>3.66</v>
       </c>
       <c r="C127" s="4">
-        <v>540</v>
+        <v>3.66</v>
       </c>
       <c r="D127" s="4">
-        <v>540</v>
+        <v>3.66</v>
       </c>
       <c r="E127" s="4">
-        <v>540</v>
+        <v>3.66</v>
       </c>
       <c r="F127" s="4">
         <v>0</v>
@@ -5705,91 +5696,91 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B128" s="4">
+        <v>16.3</v>
+      </c>
+      <c r="C128" s="4">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="D128" s="4">
+        <v>16.3</v>
+      </c>
+      <c r="E128" s="4">
+        <v>16.38</v>
+      </c>
+      <c r="F128" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="B128" s="4">
-        <v>3.66</v>
-      </c>
-      <c r="C128" s="4">
-        <v>3.66</v>
-      </c>
-      <c r="D128" s="4">
-        <v>3.66</v>
-      </c>
-      <c r="E128" s="4">
-        <v>3.66</v>
-      </c>
-      <c r="F128" s="4">
-        <v>0</v>
-      </c>
-      <c r="G128" s="4">
-        <v>0</v>
+      <c r="G128" s="4" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B129" s="4">
-        <v>16.3</v>
+        <v>100.4</v>
       </c>
       <c r="C129" s="4">
-        <v>16.600000000000001</v>
+        <v>100.4</v>
       </c>
       <c r="D129" s="4">
-        <v>16.3</v>
+        <v>100.4</v>
       </c>
       <c r="E129" s="4">
-        <v>16.38</v>
-      </c>
-      <c r="F129" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="G129" s="4" t="s">
-        <v>283</v>
+        <v>100.4</v>
+      </c>
+      <c r="F129" s="4">
+        <v>0</v>
+      </c>
+      <c r="G129" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B130" s="4">
+        <v>5.38</v>
+      </c>
+      <c r="C130" s="4">
+        <v>5.39</v>
+      </c>
+      <c r="D130" s="4">
+        <v>5.33</v>
+      </c>
+      <c r="E130" s="4">
+        <v>5.35</v>
+      </c>
+      <c r="F130" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B130" s="4">
-        <v>100.4</v>
-      </c>
-      <c r="C130" s="4">
-        <v>100.4</v>
-      </c>
-      <c r="D130" s="4">
-        <v>100.4</v>
-      </c>
-      <c r="E130" s="4">
-        <v>100.4</v>
-      </c>
-      <c r="F130" s="4">
-        <v>0</v>
-      </c>
-      <c r="G130" s="4">
-        <v>0</v>
+      <c r="G130" s="4" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B131" s="4">
-        <v>5.38</v>
+        <v>2.1</v>
       </c>
       <c r="C131" s="4">
-        <v>5.39</v>
+        <v>2.1</v>
       </c>
       <c r="D131" s="4">
-        <v>5.33</v>
+        <v>2.1</v>
       </c>
       <c r="E131" s="4">
-        <v>5.35</v>
+        <v>2.1</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="G131" s="4" t="s">
         <v>287</v>
@@ -5800,45 +5791,45 @@
         <v>288</v>
       </c>
       <c r="B132" s="4">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="C132" s="4">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="D132" s="4">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="E132" s="4">
-        <v>2.1</v>
-      </c>
-      <c r="F132" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="G132" s="4" t="s">
-        <v>289</v>
+        <v>1.88</v>
+      </c>
+      <c r="F132" s="4">
+        <v>0</v>
+      </c>
+      <c r="G132" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B133" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="C133" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="D133" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="E133" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G133" s="4" t="s">
         <v>290</v>
-      </c>
-      <c r="B133" s="4">
-        <v>1.88</v>
-      </c>
-      <c r="C133" s="4">
-        <v>1.88</v>
-      </c>
-      <c r="D133" s="4">
-        <v>1.88</v>
-      </c>
-      <c r="E133" s="4">
-        <v>1.88</v>
-      </c>
-      <c r="F133" s="4">
-        <v>0</v>
-      </c>
-      <c r="G133" s="4">
-        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -5846,65 +5837,65 @@
         <v>291</v>
       </c>
       <c r="B134" s="4">
-        <v>0.88</v>
+        <v>101</v>
       </c>
       <c r="C134" s="4">
-        <v>0.88</v>
+        <v>101</v>
       </c>
       <c r="D134" s="4">
-        <v>0.87</v>
+        <v>100.4</v>
       </c>
       <c r="E134" s="4">
-        <v>0.87</v>
+        <v>101</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>81</v>
+        <v>292</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B135" s="4">
-        <v>101</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="C135" s="4">
-        <v>101</v>
+        <v>2.48</v>
       </c>
       <c r="D135" s="4">
-        <v>100.4</v>
+        <v>2.38</v>
       </c>
       <c r="E135" s="4">
-        <v>101</v>
+        <v>2.48</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B136" s="4">
-        <v>2.4500000000000002</v>
+        <v>0.51</v>
       </c>
       <c r="C136" s="4">
-        <v>2.48</v>
+        <v>0.51</v>
       </c>
       <c r="D136" s="4">
-        <v>2.38</v>
+        <v>0.51</v>
       </c>
       <c r="E136" s="4">
-        <v>2.48</v>
+        <v>0.51</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>298</v>
@@ -5915,19 +5906,19 @@
         <v>299</v>
       </c>
       <c r="B137" s="4">
-        <v>0.51</v>
+        <v>61</v>
       </c>
       <c r="C137" s="4">
-        <v>0.51</v>
+        <v>61</v>
       </c>
       <c r="D137" s="4">
-        <v>0.51</v>
+        <v>60.95</v>
       </c>
       <c r="E137" s="4">
-        <v>0.51</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>266</v>
+        <v>60.95</v>
+      </c>
+      <c r="F137" s="4">
+        <v>350</v>
       </c>
       <c r="G137" s="4" t="s">
         <v>300</v>
@@ -5938,85 +5929,85 @@
         <v>301</v>
       </c>
       <c r="B138" s="4">
-        <v>61</v>
+        <v>0.23</v>
       </c>
       <c r="C138" s="4">
-        <v>61</v>
+        <v>0.23</v>
       </c>
       <c r="D138" s="4">
-        <v>60.95</v>
+        <v>0.23</v>
       </c>
       <c r="E138" s="4">
-        <v>60.95</v>
+        <v>0.23</v>
       </c>
       <c r="F138" s="4">
-        <v>350</v>
-      </c>
-      <c r="G138" s="4" t="s">
-        <v>302</v>
+        <v>0</v>
+      </c>
+      <c r="G138" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B139" s="4">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C139" s="4">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D139" s="4">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E139" s="4">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F139" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="B139" s="4">
-        <v>0.23</v>
-      </c>
-      <c r="C139" s="4">
-        <v>0.23</v>
-      </c>
-      <c r="D139" s="4">
-        <v>0.23</v>
-      </c>
-      <c r="E139" s="4">
-        <v>0.23</v>
-      </c>
-      <c r="F139" s="4">
-        <v>0</v>
-      </c>
-      <c r="G139" s="4">
-        <v>0</v>
+      <c r="G139" s="4" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B140" s="4">
-        <v>1.1200000000000001</v>
+        <v>3</v>
       </c>
       <c r="C140" s="4">
-        <v>1.1499999999999999</v>
+        <v>3</v>
       </c>
       <c r="D140" s="4">
-        <v>1.1200000000000001</v>
+        <v>3</v>
       </c>
       <c r="E140" s="4">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="G140" s="4" t="s">
-        <v>306</v>
+        <v>3</v>
+      </c>
+      <c r="F140" s="4">
+        <v>0</v>
+      </c>
+      <c r="G140" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B141" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C141" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D141" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E141" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F141" s="4">
         <v>0</v>
@@ -6027,111 +6018,111 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B142" s="4">
+        <v>0.185</v>
+      </c>
+      <c r="C142" s="4">
+        <v>0.185</v>
+      </c>
+      <c r="D142" s="4">
+        <v>0.185</v>
+      </c>
+      <c r="E142" s="4">
+        <v>0.185</v>
+      </c>
+      <c r="F142" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="B142" s="4">
-        <v>5</v>
-      </c>
-      <c r="C142" s="4">
-        <v>5</v>
-      </c>
-      <c r="D142" s="4">
-        <v>5</v>
-      </c>
-      <c r="E142" s="4">
-        <v>5</v>
-      </c>
-      <c r="F142" s="4">
-        <v>0</v>
-      </c>
-      <c r="G142" s="4">
-        <v>0</v>
+      <c r="G142" s="4" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B143" s="4">
-        <v>0.185</v>
+        <v>0.91</v>
       </c>
       <c r="C143" s="4">
-        <v>0.185</v>
+        <v>0.91</v>
       </c>
       <c r="D143" s="4">
-        <v>0.185</v>
+        <v>0.91</v>
       </c>
       <c r="E143" s="4">
-        <v>0.185</v>
+        <v>0.91</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B144" s="4">
-        <v>0.91</v>
-      </c>
-      <c r="C144" s="4">
-        <v>0.91</v>
-      </c>
-      <c r="D144" s="4">
-        <v>0.91</v>
-      </c>
-      <c r="E144" s="4">
-        <v>0.91</v>
+        <v>313</v>
+      </c>
+      <c r="B144" s="5">
+        <v>2194</v>
+      </c>
+      <c r="C144" s="5">
+        <v>2196</v>
+      </c>
+      <c r="D144" s="5">
+        <v>2162</v>
+      </c>
+      <c r="E144" s="5">
+        <v>2168</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="B145" s="5">
-        <v>2194</v>
-      </c>
-      <c r="C145" s="5">
-        <v>2196</v>
-      </c>
-      <c r="D145" s="5">
-        <v>2162</v>
-      </c>
-      <c r="E145" s="5">
-        <v>2168</v>
-      </c>
-      <c r="F145" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="G145" s="4" t="s">
-        <v>317</v>
+      <c r="B145" s="4">
+        <v>5</v>
+      </c>
+      <c r="C145" s="4">
+        <v>5</v>
+      </c>
+      <c r="D145" s="4">
+        <v>5</v>
+      </c>
+      <c r="E145" s="4">
+        <v>5</v>
+      </c>
+      <c r="F145" s="4">
+        <v>0</v>
+      </c>
+      <c r="G145" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B146" s="4">
-        <v>5</v>
+        <v>505.5</v>
       </c>
       <c r="C146" s="4">
-        <v>5</v>
+        <v>505.5</v>
       </c>
       <c r="D146" s="4">
-        <v>5</v>
+        <v>505.5</v>
       </c>
       <c r="E146" s="4">
-        <v>5</v>
+        <v>505.5</v>
       </c>
       <c r="F146" s="4">
         <v>0</v>
@@ -6142,180 +6133,180 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B147" s="4">
+        <v>11.1</v>
+      </c>
+      <c r="C147" s="4">
+        <v>11.2</v>
+      </c>
+      <c r="D147" s="4">
+        <v>11</v>
+      </c>
+      <c r="E147" s="4">
+        <v>11.08</v>
+      </c>
+      <c r="F147" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B147" s="4">
-        <v>505.5</v>
-      </c>
-      <c r="C147" s="4">
-        <v>505.5</v>
-      </c>
-      <c r="D147" s="4">
-        <v>505.5</v>
-      </c>
-      <c r="E147" s="4">
-        <v>505.5</v>
-      </c>
-      <c r="F147" s="4">
-        <v>0</v>
-      </c>
-      <c r="G147" s="4">
-        <v>0</v>
+      <c r="G147" s="4" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B148" s="4">
-        <v>11.1</v>
+        <v>10.78</v>
       </c>
       <c r="C148" s="4">
-        <v>11.2</v>
+        <v>10.88</v>
       </c>
       <c r="D148" s="4">
-        <v>11</v>
+        <v>10.78</v>
       </c>
       <c r="E148" s="4">
-        <v>11.08</v>
+        <v>10.88</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B149" s="4">
-        <v>10.78</v>
+        <v>11.98</v>
       </c>
       <c r="C149" s="4">
-        <v>10.88</v>
+        <v>11.98</v>
       </c>
       <c r="D149" s="4">
-        <v>10.78</v>
+        <v>11.98</v>
       </c>
       <c r="E149" s="4">
-        <v>10.88</v>
-      </c>
-      <c r="F149" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="G149" s="4" t="s">
-        <v>325</v>
+        <v>11.98</v>
+      </c>
+      <c r="F149" s="4">
+        <v>0</v>
+      </c>
+      <c r="G149" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B150" s="4">
+        <v>1.49</v>
+      </c>
+      <c r="C150" s="4">
+        <v>1.49</v>
+      </c>
+      <c r="D150" s="4">
+        <v>1.45</v>
+      </c>
+      <c r="E150" s="4">
+        <v>1.48</v>
+      </c>
+      <c r="F150" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B150" s="4">
-        <v>11.98</v>
-      </c>
-      <c r="C150" s="4">
-        <v>11.98</v>
-      </c>
-      <c r="D150" s="4">
-        <v>11.98</v>
-      </c>
-      <c r="E150" s="4">
-        <v>11.98</v>
-      </c>
-      <c r="F150" s="4">
-        <v>0</v>
-      </c>
-      <c r="G150" s="4">
-        <v>0</v>
+      <c r="G150" s="4" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B151" s="4">
-        <v>1.49</v>
+        <v>107.5</v>
       </c>
       <c r="C151" s="4">
-        <v>1.49</v>
+        <v>107.5</v>
       </c>
       <c r="D151" s="4">
-        <v>1.45</v>
+        <v>105.1</v>
       </c>
       <c r="E151" s="4">
-        <v>1.48</v>
+        <v>106</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B152" s="4">
-        <v>107.5</v>
+        <v>433.4</v>
       </c>
       <c r="C152" s="4">
-        <v>107.5</v>
+        <v>439</v>
       </c>
       <c r="D152" s="4">
-        <v>105.1</v>
+        <v>430</v>
       </c>
       <c r="E152" s="4">
-        <v>106</v>
+        <v>438</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B153" s="4">
-        <v>433.4</v>
+        <v>950</v>
       </c>
       <c r="C153" s="4">
-        <v>439</v>
+        <v>950</v>
       </c>
       <c r="D153" s="4">
-        <v>430</v>
+        <v>950</v>
       </c>
       <c r="E153" s="4">
-        <v>438</v>
-      </c>
-      <c r="F153" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="G153" s="4" t="s">
-        <v>335</v>
+        <v>950</v>
+      </c>
+      <c r="F153" s="4">
+        <v>0</v>
+      </c>
+      <c r="G153" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B154" s="4">
-        <v>950</v>
+        <v>984.5</v>
       </c>
       <c r="C154" s="4">
-        <v>950</v>
+        <v>984.5</v>
       </c>
       <c r="D154" s="4">
-        <v>950</v>
+        <v>984.5</v>
       </c>
       <c r="E154" s="4">
-        <v>950</v>
+        <v>984.5</v>
       </c>
       <c r="F154" s="4">
         <v>0</v>
@@ -6326,19 +6317,19 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B155" s="4">
-        <v>984.5</v>
+        <v>3.55</v>
       </c>
       <c r="C155" s="4">
-        <v>984.5</v>
+        <v>3.55</v>
       </c>
       <c r="D155" s="4">
-        <v>984.5</v>
+        <v>3.55</v>
       </c>
       <c r="E155" s="4">
-        <v>984.5</v>
+        <v>3.55</v>
       </c>
       <c r="F155" s="4">
         <v>0</v>
@@ -6349,19 +6340,19 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B156" s="4">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="C156" s="4">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="D156" s="4">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="E156" s="4">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="F156" s="4">
         <v>0</v>
@@ -6372,91 +6363,91 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B157" s="4">
+        <v>1.45</v>
+      </c>
+      <c r="C157" s="4">
+        <v>1.54</v>
+      </c>
+      <c r="D157" s="4">
+        <v>1.45</v>
+      </c>
+      <c r="E157" s="4">
+        <v>1.52</v>
+      </c>
+      <c r="F157" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="B157" s="4">
-        <v>4</v>
-      </c>
-      <c r="C157" s="4">
-        <v>4</v>
-      </c>
-      <c r="D157" s="4">
-        <v>4</v>
-      </c>
-      <c r="E157" s="4">
-        <v>4</v>
-      </c>
-      <c r="F157" s="4">
-        <v>0</v>
-      </c>
-      <c r="G157" s="4">
-        <v>0</v>
+      <c r="G157" s="4" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B158" s="4">
-        <v>1.45</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="C158" s="4">
-        <v>1.54</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="D158" s="4">
-        <v>1.45</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="E158" s="4">
-        <v>1.52</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B159" s="4">
-        <v>9.8800000000000008</v>
+        <v>1.04</v>
       </c>
       <c r="C159" s="4">
-        <v>9.8800000000000008</v>
+        <v>1.04</v>
       </c>
       <c r="D159" s="4">
-        <v>9.8800000000000008</v>
+        <v>0.98</v>
       </c>
       <c r="E159" s="4">
-        <v>9.8800000000000008</v>
+        <v>1.02</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B160" s="4">
-        <v>1.04</v>
+        <v>630</v>
       </c>
       <c r="C160" s="4">
-        <v>1.04</v>
+        <v>650</v>
       </c>
       <c r="D160" s="4">
-        <v>0.98</v>
+        <v>630</v>
       </c>
       <c r="E160" s="4">
-        <v>1.02</v>
-      </c>
-      <c r="F160" s="4" t="s">
-        <v>347</v>
+        <v>650</v>
+      </c>
+      <c r="F160" s="4">
+        <v>780</v>
       </c>
       <c r="G160" s="4" t="s">
         <v>348</v>
@@ -6467,223 +6458,223 @@
         <v>349</v>
       </c>
       <c r="B161" s="4">
-        <v>630</v>
+        <v>0.72</v>
       </c>
       <c r="C161" s="4">
-        <v>650</v>
+        <v>0.72</v>
       </c>
       <c r="D161" s="4">
-        <v>630</v>
+        <v>0.72</v>
       </c>
       <c r="E161" s="4">
-        <v>650</v>
-      </c>
-      <c r="F161" s="4">
-        <v>780</v>
+        <v>0.72</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>350</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B162" s="4">
-        <v>0.72</v>
+        <v>204</v>
       </c>
       <c r="C162" s="4">
-        <v>0.72</v>
+        <v>205</v>
       </c>
       <c r="D162" s="4">
-        <v>0.72</v>
+        <v>200</v>
       </c>
       <c r="E162" s="4">
-        <v>0.72</v>
+        <v>200</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B163" s="4">
-        <v>204</v>
+        <v>0.76</v>
       </c>
       <c r="C163" s="4">
-        <v>205</v>
+        <v>0.82</v>
       </c>
       <c r="D163" s="4">
-        <v>200</v>
+        <v>0.76</v>
       </c>
       <c r="E163" s="4">
-        <v>200</v>
+        <v>0.8</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B164" s="4">
-        <v>0.76</v>
+        <v>4.75</v>
       </c>
       <c r="C164" s="4">
-        <v>0.82</v>
+        <v>4.95</v>
       </c>
       <c r="D164" s="4">
-        <v>0.76</v>
+        <v>4.75</v>
       </c>
       <c r="E164" s="4">
-        <v>0.8</v>
+        <v>4.82</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B165" s="4">
-        <v>4.75</v>
+        <v>1.32</v>
       </c>
       <c r="C165" s="4">
-        <v>4.95</v>
+        <v>1.32</v>
       </c>
       <c r="D165" s="4">
-        <v>4.75</v>
+        <v>1.32</v>
       </c>
       <c r="E165" s="4">
-        <v>4.82</v>
-      </c>
-      <c r="F165" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="G165" s="4" t="s">
-        <v>362</v>
+        <v>1.32</v>
+      </c>
+      <c r="F165" s="4">
+        <v>0</v>
+      </c>
+      <c r="G165" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B166" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="C166" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="D166" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="E166" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F166" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="B166" s="4">
-        <v>1.32</v>
-      </c>
-      <c r="C166" s="4">
-        <v>1.32</v>
-      </c>
-      <c r="D166" s="4">
-        <v>1.32</v>
-      </c>
-      <c r="E166" s="4">
-        <v>1.32</v>
-      </c>
-      <c r="F166" s="4">
-        <v>0</v>
-      </c>
-      <c r="G166" s="4">
-        <v>0</v>
+      <c r="G166" s="4" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B167" s="4">
-        <v>0.88</v>
+        <v>0.54</v>
       </c>
       <c r="C167" s="4">
-        <v>0.9</v>
+        <v>0.54</v>
       </c>
       <c r="D167" s="4">
-        <v>0.88</v>
+        <v>0.54</v>
       </c>
       <c r="E167" s="4">
-        <v>0.9</v>
+        <v>0.54</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B168" s="4">
-        <v>0.54</v>
+        <v>6.5</v>
       </c>
       <c r="C168" s="4">
-        <v>0.54</v>
+        <v>6.6</v>
       </c>
       <c r="D168" s="4">
-        <v>0.54</v>
+        <v>6.5</v>
       </c>
       <c r="E168" s="4">
-        <v>0.54</v>
+        <v>6.6</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B169" s="4">
-        <v>6.5</v>
+        <v>6.93</v>
       </c>
       <c r="C169" s="4">
-        <v>6.6</v>
+        <v>6.93</v>
       </c>
       <c r="D169" s="4">
-        <v>6.5</v>
+        <v>6.93</v>
       </c>
       <c r="E169" s="4">
-        <v>6.6</v>
-      </c>
-      <c r="F169" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="G169" s="4" t="s">
-        <v>372</v>
+        <v>6.93</v>
+      </c>
+      <c r="F169" s="4">
+        <v>0</v>
+      </c>
+      <c r="G169" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B170" s="4">
-        <v>6.93</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="C170" s="4">
-        <v>6.93</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="D170" s="4">
-        <v>6.93</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E170" s="4">
-        <v>6.93</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="F170" s="4">
         <v>0</v>
@@ -6694,19 +6685,19 @@
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B171" s="4">
-        <v>0.14399999999999999</v>
+        <v>1.66</v>
       </c>
       <c r="C171" s="4">
-        <v>0.14399999999999999</v>
+        <v>1.66</v>
       </c>
       <c r="D171" s="4">
-        <v>0.14399999999999999</v>
+        <v>1.66</v>
       </c>
       <c r="E171" s="4">
-        <v>0.14399999999999999</v>
+        <v>1.66</v>
       </c>
       <c r="F171" s="4">
         <v>0</v>
@@ -6717,45 +6708,45 @@
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B172" s="4">
+        <v>231</v>
+      </c>
+      <c r="C172" s="4">
+        <v>233</v>
+      </c>
+      <c r="D172" s="4">
+        <v>227</v>
+      </c>
+      <c r="E172" s="4">
+        <v>229</v>
+      </c>
+      <c r="F172" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="B172" s="4">
-        <v>1.66</v>
-      </c>
-      <c r="C172" s="4">
-        <v>1.66</v>
-      </c>
-      <c r="D172" s="4">
-        <v>1.66</v>
-      </c>
-      <c r="E172" s="4">
-        <v>1.66</v>
-      </c>
-      <c r="F172" s="4">
-        <v>0</v>
-      </c>
-      <c r="G172" s="4">
-        <v>0</v>
+      <c r="G172" s="4" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B173" s="4">
-        <v>231</v>
+        <v>935</v>
       </c>
       <c r="C173" s="4">
-        <v>233</v>
+        <v>935</v>
       </c>
       <c r="D173" s="4">
-        <v>227</v>
+        <v>935</v>
       </c>
       <c r="E173" s="4">
-        <v>229</v>
-      </c>
-      <c r="F173" s="4" t="s">
-        <v>377</v>
+        <v>935</v>
+      </c>
+      <c r="F173" s="4">
+        <v>10</v>
       </c>
       <c r="G173" s="4" t="s">
         <v>378</v>
@@ -6766,65 +6757,65 @@
         <v>379</v>
       </c>
       <c r="B174" s="4">
-        <v>935</v>
+        <v>946</v>
       </c>
       <c r="C174" s="4">
-        <v>935</v>
+        <v>946</v>
       </c>
       <c r="D174" s="4">
-        <v>935</v>
+        <v>914</v>
       </c>
       <c r="E174" s="4">
-        <v>935</v>
-      </c>
-      <c r="F174" s="4">
-        <v>10</v>
+        <v>914</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>380</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B175" s="4">
-        <v>946</v>
+        <v>49.7</v>
       </c>
       <c r="C175" s="4">
-        <v>946</v>
+        <v>51.25</v>
       </c>
       <c r="D175" s="4">
-        <v>914</v>
+        <v>48.5</v>
       </c>
       <c r="E175" s="4">
-        <v>914</v>
+        <v>51</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B176" s="4">
-        <v>49.7</v>
+        <v>5.58</v>
       </c>
       <c r="C176" s="4">
-        <v>51.25</v>
+        <v>5.58</v>
       </c>
       <c r="D176" s="4">
-        <v>48.5</v>
+        <v>5.58</v>
       </c>
       <c r="E176" s="4">
-        <v>51</v>
-      </c>
-      <c r="F176" s="4" t="s">
-        <v>385</v>
+        <v>5.58</v>
+      </c>
+      <c r="F176" s="4">
+        <v>700</v>
       </c>
       <c r="G176" s="4" t="s">
         <v>386</v>
@@ -6835,62 +6826,62 @@
         <v>387</v>
       </c>
       <c r="B177" s="4">
-        <v>5.58</v>
+        <v>1.29</v>
       </c>
       <c r="C177" s="4">
-        <v>5.58</v>
+        <v>1.29</v>
       </c>
       <c r="D177" s="4">
-        <v>5.58</v>
+        <v>1.27</v>
       </c>
       <c r="E177" s="4">
-        <v>5.58</v>
-      </c>
-      <c r="F177" s="4">
-        <v>700</v>
+        <v>1.28</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>388</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B178" s="4">
-        <v>1.29</v>
+        <v>3</v>
       </c>
       <c r="C178" s="4">
-        <v>1.29</v>
+        <v>3</v>
       </c>
       <c r="D178" s="4">
-        <v>1.27</v>
+        <v>3</v>
       </c>
       <c r="E178" s="4">
-        <v>1.28</v>
-      </c>
-      <c r="F178" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="G178" s="4" t="s">
-        <v>391</v>
+        <v>3</v>
+      </c>
+      <c r="F178" s="4">
+        <v>0</v>
+      </c>
+      <c r="G178" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B179" s="4">
-        <v>3</v>
+        <v>6.6</v>
       </c>
       <c r="C179" s="4">
-        <v>3</v>
+        <v>6.6</v>
       </c>
       <c r="D179" s="4">
-        <v>3</v>
+        <v>6.6</v>
       </c>
       <c r="E179" s="4">
-        <v>3</v>
+        <v>6.6</v>
       </c>
       <c r="F179" s="4">
         <v>0</v>
@@ -6901,19 +6892,19 @@
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B180" s="4">
-        <v>6.6</v>
+        <v>6.16</v>
       </c>
       <c r="C180" s="4">
-        <v>6.6</v>
+        <v>6.16</v>
       </c>
       <c r="D180" s="4">
-        <v>6.6</v>
+        <v>6.16</v>
       </c>
       <c r="E180" s="4">
-        <v>6.6</v>
+        <v>6.16</v>
       </c>
       <c r="F180" s="4">
         <v>0</v>
@@ -6924,19 +6915,19 @@
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B181" s="4">
-        <v>6.16</v>
+        <v>1.53</v>
       </c>
       <c r="C181" s="4">
-        <v>6.16</v>
+        <v>1.53</v>
       </c>
       <c r="D181" s="4">
-        <v>6.16</v>
+        <v>1.53</v>
       </c>
       <c r="E181" s="4">
-        <v>6.16</v>
+        <v>1.53</v>
       </c>
       <c r="F181" s="4">
         <v>0</v>
@@ -6947,134 +6938,134 @@
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B182" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="C182" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="D182" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="E182" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="F182" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="B182" s="4">
-        <v>1.53</v>
-      </c>
-      <c r="C182" s="4">
-        <v>1.53</v>
-      </c>
-      <c r="D182" s="4">
-        <v>1.53</v>
-      </c>
-      <c r="E182" s="4">
-        <v>1.53</v>
-      </c>
-      <c r="F182" s="4">
-        <v>0</v>
-      </c>
-      <c r="G182" s="4">
-        <v>0</v>
+      <c r="G182" s="4" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B183" s="4">
-        <v>0.79</v>
+        <v>18.96</v>
       </c>
       <c r="C183" s="4">
-        <v>0.79</v>
+        <v>18.96</v>
       </c>
       <c r="D183" s="4">
-        <v>0.79</v>
+        <v>18.96</v>
       </c>
       <c r="E183" s="4">
-        <v>0.79</v>
-      </c>
-      <c r="F183" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="G183" s="4" t="s">
-        <v>398</v>
+        <v>18.96</v>
+      </c>
+      <c r="F183" s="4">
+        <v>0</v>
+      </c>
+      <c r="G183" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B184" s="4">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="C184" s="4">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="D184" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="E184" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="F184" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="B184" s="4">
-        <v>18.96</v>
-      </c>
-      <c r="C184" s="4">
-        <v>18.96</v>
-      </c>
-      <c r="D184" s="4">
-        <v>18.96</v>
-      </c>
-      <c r="E184" s="4">
-        <v>18.96</v>
-      </c>
-      <c r="F184" s="4">
-        <v>0</v>
-      </c>
-      <c r="G184" s="4">
-        <v>0</v>
+      <c r="G184" s="4" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B185" s="4">
-        <v>0.11700000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="C185" s="4">
-        <v>0.11799999999999999</v>
+        <v>0.112</v>
       </c>
       <c r="D185" s="4">
         <v>0.11</v>
       </c>
       <c r="E185" s="4">
-        <v>0.11</v>
+        <v>0.112</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B186" s="4">
-        <v>0.11</v>
+        <v>19.940000000000001</v>
       </c>
       <c r="C186" s="4">
-        <v>0.112</v>
+        <v>19.940000000000001</v>
       </c>
       <c r="D186" s="4">
-        <v>0.11</v>
+        <v>19.940000000000001</v>
       </c>
       <c r="E186" s="4">
-        <v>0.112</v>
-      </c>
-      <c r="F186" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="G186" s="4" t="s">
-        <v>405</v>
+        <v>19.940000000000001</v>
+      </c>
+      <c r="F186" s="4">
+        <v>0</v>
+      </c>
+      <c r="G186" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B187" s="4">
-        <v>19.940000000000001</v>
+        <v>3.48</v>
       </c>
       <c r="C187" s="4">
-        <v>19.940000000000001</v>
+        <v>3.48</v>
       </c>
       <c r="D187" s="4">
-        <v>19.940000000000001</v>
+        <v>3.48</v>
       </c>
       <c r="E187" s="4">
-        <v>19.940000000000001</v>
+        <v>3.48</v>
       </c>
       <c r="F187" s="4">
         <v>0</v>
@@ -7085,91 +7076,91 @@
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B188" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C188" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D188" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E188" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F188" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="B188" s="4">
-        <v>3.48</v>
-      </c>
-      <c r="C188" s="4">
-        <v>3.48</v>
-      </c>
-      <c r="D188" s="4">
-        <v>3.48</v>
-      </c>
-      <c r="E188" s="4">
-        <v>3.48</v>
-      </c>
-      <c r="F188" s="4">
-        <v>0</v>
-      </c>
-      <c r="G188" s="4">
-        <v>0</v>
+      <c r="G188" s="4" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B189" s="4">
-        <v>0.5</v>
+        <v>1.56</v>
       </c>
       <c r="C189" s="4">
-        <v>0.56000000000000005</v>
+        <v>1.56</v>
       </c>
       <c r="D189" s="4">
-        <v>0.5</v>
+        <v>1.56</v>
       </c>
       <c r="E189" s="4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F189" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="G189" s="4" t="s">
-        <v>410</v>
+        <v>1.56</v>
+      </c>
+      <c r="F189" s="4">
+        <v>0</v>
+      </c>
+      <c r="G189" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B190" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="C190" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="D190" s="4">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="E190" s="4">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="F190" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="B190" s="4">
-        <v>1.56</v>
-      </c>
-      <c r="C190" s="4">
-        <v>1.56</v>
-      </c>
-      <c r="D190" s="4">
-        <v>1.56</v>
-      </c>
-      <c r="E190" s="4">
-        <v>1.56</v>
-      </c>
-      <c r="F190" s="4">
-        <v>0</v>
-      </c>
-      <c r="G190" s="4">
-        <v>0</v>
+      <c r="G190" s="4" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B191" s="4">
-        <v>0.15</v>
+        <v>2.93</v>
       </c>
       <c r="C191" s="4">
-        <v>0.15</v>
+        <v>2.93</v>
       </c>
       <c r="D191" s="4">
-        <v>0.14399999999999999</v>
+        <v>2.93</v>
       </c>
       <c r="E191" s="4">
-        <v>0.14799999999999999</v>
+        <v>2.93</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>413</v>
+        <v>264</v>
       </c>
       <c r="G191" s="4" t="s">
         <v>414</v>
@@ -7180,206 +7171,206 @@
         <v>415</v>
       </c>
       <c r="B192" s="4">
-        <v>2.93</v>
+        <v>2.4</v>
       </c>
       <c r="C192" s="4">
-        <v>2.93</v>
+        <v>2.44</v>
       </c>
       <c r="D192" s="4">
-        <v>2.93</v>
+        <v>2.37</v>
       </c>
       <c r="E192" s="4">
-        <v>2.93</v>
+        <v>2.44</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>266</v>
+        <v>416</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B193" s="4">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="C193" s="4">
-        <v>2.44</v>
+        <v>1</v>
       </c>
       <c r="D193" s="4">
-        <v>2.37</v>
+        <v>1</v>
       </c>
       <c r="E193" s="4">
-        <v>2.44</v>
-      </c>
-      <c r="F193" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="G193" s="4" t="s">
-        <v>419</v>
+        <v>1</v>
+      </c>
+      <c r="F193" s="4">
+        <v>0</v>
+      </c>
+      <c r="G193" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="B194" s="4">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="C194" s="4">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="D194" s="4">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="E194" s="4">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="F194" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="B194" s="4">
-        <v>1</v>
-      </c>
-      <c r="C194" s="4">
-        <v>1</v>
-      </c>
-      <c r="D194" s="4">
-        <v>1</v>
-      </c>
-      <c r="E194" s="4">
-        <v>1</v>
-      </c>
-      <c r="F194" s="4">
-        <v>0</v>
-      </c>
-      <c r="G194" s="4">
-        <v>0</v>
+      <c r="G194" s="4" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B195" s="4">
-        <v>0.45500000000000002</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="C195" s="4">
-        <v>0.45500000000000002</v>
+        <v>9.1</v>
       </c>
       <c r="D195" s="4">
-        <v>0.45500000000000002</v>
+        <v>9</v>
       </c>
       <c r="E195" s="4">
-        <v>0.45500000000000002</v>
+        <v>9.1</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B196" s="4">
-        <v>9.0299999999999994</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="C196" s="4">
-        <v>9.1</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="D196" s="4">
-        <v>9</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="E196" s="4">
-        <v>9.1</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B197" s="4">
-        <v>9.5999999999999992E-3</v>
+        <v>0.01</v>
       </c>
       <c r="C197" s="4">
-        <v>9.5999999999999992E-3</v>
+        <v>0.01</v>
       </c>
       <c r="D197" s="4">
-        <v>9.5999999999999992E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E197" s="4">
-        <v>9.5999999999999992E-3</v>
-      </c>
-      <c r="F197" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="G197" s="4" t="s">
-        <v>429</v>
+        <v>0.01</v>
+      </c>
+      <c r="F197" s="4">
+        <v>0</v>
+      </c>
+      <c r="G197" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B198" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C198" s="4">
+        <v>4.99</v>
+      </c>
+      <c r="D198" s="4">
+        <v>4.84</v>
+      </c>
+      <c r="E198" s="4">
+        <v>4.99</v>
+      </c>
+      <c r="F198" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="B198" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="C198" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="D198" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="E198" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="F198" s="4">
-        <v>0</v>
-      </c>
-      <c r="G198" s="4">
-        <v>0</v>
+      <c r="G198" s="4" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B199" s="4">
-        <v>4.9000000000000004</v>
+        <v>6.7</v>
       </c>
       <c r="C199" s="4">
-        <v>4.99</v>
+        <v>6.7</v>
       </c>
       <c r="D199" s="4">
-        <v>4.84</v>
+        <v>6.7</v>
       </c>
       <c r="E199" s="4">
-        <v>4.99</v>
-      </c>
-      <c r="F199" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="G199" s="4" t="s">
-        <v>433</v>
+        <v>6.7</v>
+      </c>
+      <c r="F199" s="4">
+        <v>0</v>
+      </c>
+      <c r="G199" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B200" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="C200" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="D200" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="E200" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="F200" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="G200" s="4" t="s">
         <v>434</v>
-      </c>
-      <c r="B200" s="4">
-        <v>6.7</v>
-      </c>
-      <c r="C200" s="4">
-        <v>6.7</v>
-      </c>
-      <c r="D200" s="4">
-        <v>6.7</v>
-      </c>
-      <c r="E200" s="4">
-        <v>6.7</v>
-      </c>
-      <c r="F200" s="4">
-        <v>0</v>
-      </c>
-      <c r="G200" s="4">
-        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -7387,108 +7378,108 @@
         <v>435</v>
       </c>
       <c r="B201" s="4">
-        <v>0.64</v>
+        <v>0.7</v>
       </c>
       <c r="C201" s="4">
-        <v>0.66</v>
+        <v>0.7</v>
       </c>
       <c r="D201" s="4">
-        <v>0.64</v>
+        <v>0.7</v>
       </c>
       <c r="E201" s="4">
-        <v>0.65</v>
-      </c>
-      <c r="F201" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="G201" s="4" t="s">
-        <v>436</v>
+        <v>0.7</v>
+      </c>
+      <c r="F201" s="4">
+        <v>0</v>
+      </c>
+      <c r="G201" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B202" s="4">
+        <v>1.21</v>
+      </c>
+      <c r="C202" s="4">
+        <v>1.23</v>
+      </c>
+      <c r="D202" s="4">
+        <v>1.18</v>
+      </c>
+      <c r="E202" s="4">
+        <v>1.18</v>
+      </c>
+      <c r="F202" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="B202" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="C202" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="D202" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="E202" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="F202" s="4">
-        <v>0</v>
-      </c>
-      <c r="G202" s="4">
-        <v>0</v>
+      <c r="G202" s="4" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B203" s="4">
-        <v>1.21</v>
+        <v>5</v>
       </c>
       <c r="C203" s="4">
-        <v>1.23</v>
+        <v>5</v>
       </c>
       <c r="D203" s="4">
-        <v>1.18</v>
+        <v>4.96</v>
       </c>
       <c r="E203" s="4">
-        <v>1.18</v>
+        <v>4.99</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B204" s="4">
-        <v>5</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C204" s="4">
-        <v>5</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D204" s="4">
-        <v>4.96</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E204" s="4">
-        <v>4.99</v>
-      </c>
-      <c r="F204" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="G204" s="4" t="s">
-        <v>443</v>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F204" s="4">
+        <v>0</v>
+      </c>
+      <c r="G204" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B205" s="4">
-        <v>0.28000000000000003</v>
+        <v>6.99</v>
       </c>
       <c r="C205" s="4">
-        <v>0.28000000000000003</v>
+        <v>6.99</v>
       </c>
       <c r="D205" s="4">
-        <v>0.28000000000000003</v>
+        <v>6.99</v>
       </c>
       <c r="E205" s="4">
-        <v>0.28000000000000003</v>
+        <v>6.99</v>
       </c>
       <c r="F205" s="4">
         <v>0</v>
@@ -7499,157 +7490,157 @@
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B206" s="4">
+        <v>54.8</v>
+      </c>
+      <c r="C206" s="4">
+        <v>55.35</v>
+      </c>
+      <c r="D206" s="4">
+        <v>54.5</v>
+      </c>
+      <c r="E206" s="4">
+        <v>54.6</v>
+      </c>
+      <c r="F206" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="B206" s="4">
-        <v>6.99</v>
-      </c>
-      <c r="C206" s="4">
-        <v>6.99</v>
-      </c>
-      <c r="D206" s="4">
-        <v>6.99</v>
-      </c>
-      <c r="E206" s="4">
-        <v>6.99</v>
-      </c>
-      <c r="F206" s="4">
-        <v>0</v>
-      </c>
-      <c r="G206" s="4">
-        <v>0</v>
+      <c r="G206" s="4" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B207" s="4">
-        <v>54.8</v>
+        <v>0.157</v>
       </c>
       <c r="C207" s="4">
-        <v>55.35</v>
+        <v>0.157</v>
       </c>
       <c r="D207" s="4">
-        <v>54.5</v>
+        <v>0.156</v>
       </c>
       <c r="E207" s="4">
-        <v>54.6</v>
+        <v>0.156</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B208" s="4">
-        <v>0.157</v>
+        <v>0.71</v>
       </c>
       <c r="C208" s="4">
-        <v>0.157</v>
+        <v>0.73</v>
       </c>
       <c r="D208" s="4">
-        <v>0.156</v>
+        <v>0.71</v>
       </c>
       <c r="E208" s="4">
-        <v>0.156</v>
+        <v>0.73</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B209" s="4">
-        <v>0.71</v>
+        <v>2.11</v>
       </c>
       <c r="C209" s="4">
-        <v>0.73</v>
+        <v>2.17</v>
       </c>
       <c r="D209" s="4">
-        <v>0.71</v>
+        <v>2.1</v>
       </c>
       <c r="E209" s="4">
-        <v>0.73</v>
+        <v>2.12</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B210" s="4">
-        <v>2.11</v>
+        <v>284</v>
       </c>
       <c r="C210" s="4">
-        <v>2.17</v>
+        <v>290.39999999999998</v>
       </c>
       <c r="D210" s="4">
-        <v>2.1</v>
+        <v>284</v>
       </c>
       <c r="E210" s="4">
-        <v>2.12</v>
+        <v>290.39999999999998</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B211" s="4">
-        <v>284</v>
+        <v>920</v>
       </c>
       <c r="C211" s="4">
-        <v>290.39999999999998</v>
+        <v>920</v>
       </c>
       <c r="D211" s="4">
-        <v>284</v>
+        <v>920</v>
       </c>
       <c r="E211" s="4">
-        <v>290.39999999999998</v>
-      </c>
-      <c r="F211" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="G211" s="4" t="s">
-        <v>460</v>
+        <v>920</v>
+      </c>
+      <c r="F211" s="4">
+        <v>0</v>
+      </c>
+      <c r="G211" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B212" s="4">
-        <v>920</v>
+        <v>2.35</v>
       </c>
       <c r="C212" s="4">
-        <v>920</v>
+        <v>2.35</v>
       </c>
       <c r="D212" s="4">
-        <v>920</v>
+        <v>2.35</v>
       </c>
       <c r="E212" s="4">
-        <v>920</v>
+        <v>2.35</v>
       </c>
       <c r="F212" s="4">
         <v>0</v>
@@ -7660,19 +7651,19 @@
     </row>
     <row r="213" spans="1:7">
       <c r="A213" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B213" s="4">
-        <v>2.35</v>
+        <v>0.114</v>
       </c>
       <c r="C213" s="4">
-        <v>2.35</v>
+        <v>0.114</v>
       </c>
       <c r="D213" s="4">
-        <v>2.35</v>
+        <v>0.114</v>
       </c>
       <c r="E213" s="4">
-        <v>2.35</v>
+        <v>0.114</v>
       </c>
       <c r="F213" s="4">
         <v>0</v>
@@ -7683,19 +7674,19 @@
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B214" s="4">
-        <v>0.114</v>
+        <v>1</v>
       </c>
       <c r="C214" s="4">
-        <v>0.114</v>
+        <v>1</v>
       </c>
       <c r="D214" s="4">
-        <v>0.114</v>
+        <v>1</v>
       </c>
       <c r="E214" s="4">
-        <v>0.114</v>
+        <v>1</v>
       </c>
       <c r="F214" s="4">
         <v>0</v>
@@ -7706,25 +7697,25 @@
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="B215" s="4">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="C215" s="4">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="D215" s="4">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="E215" s="4">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="F215" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G215" s="4" t="s">
         <v>464</v>
-      </c>
-      <c r="B215" s="4">
-        <v>1</v>
-      </c>
-      <c r="C215" s="4">
-        <v>1</v>
-      </c>
-      <c r="D215" s="4">
-        <v>1</v>
-      </c>
-      <c r="E215" s="4">
-        <v>1</v>
-      </c>
-      <c r="F215" s="4">
-        <v>0</v>
-      </c>
-      <c r="G215" s="4">
-        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -7732,39 +7723,39 @@
         <v>465</v>
       </c>
       <c r="B216" s="4">
-        <v>0.22800000000000001</v>
+        <v>1.35</v>
       </c>
       <c r="C216" s="4">
-        <v>0.22800000000000001</v>
+        <v>1.35</v>
       </c>
       <c r="D216" s="4">
-        <v>0.22600000000000001</v>
+        <v>1.35</v>
       </c>
       <c r="E216" s="4">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="F216" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G216" s="4" t="s">
-        <v>466</v>
+        <v>1.35</v>
+      </c>
+      <c r="F216" s="4">
+        <v>0</v>
+      </c>
+      <c r="G216" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B217" s="4">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="C217" s="4">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="D217" s="4">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="E217" s="4">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="F217" s="4">
         <v>0</v>
@@ -7775,249 +7766,249 @@
     </row>
     <row r="218" spans="1:7">
       <c r="A218" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B218" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="C218" s="4">
+        <v>1.22</v>
+      </c>
+      <c r="D218" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="E218" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="F218" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="B218" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="C218" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="D218" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="E218" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="F218" s="4">
-        <v>0</v>
-      </c>
-      <c r="G218" s="4">
-        <v>0</v>
+      <c r="G218" s="4" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="219" spans="1:7">
       <c r="A219" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B219" s="4">
-        <v>1.2</v>
+        <v>11.7</v>
       </c>
       <c r="C219" s="4">
-        <v>1.22</v>
+        <v>11.76</v>
       </c>
       <c r="D219" s="4">
-        <v>1.2</v>
+        <v>11.32</v>
       </c>
       <c r="E219" s="4">
-        <v>1.2</v>
+        <v>11.66</v>
       </c>
       <c r="F219" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G219" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="220" spans="1:7">
       <c r="A220" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B220" s="4">
-        <v>11.7</v>
+        <v>3.42</v>
       </c>
       <c r="C220" s="4">
-        <v>11.76</v>
+        <v>3.5</v>
       </c>
       <c r="D220" s="4">
-        <v>11.32</v>
+        <v>3.42</v>
       </c>
       <c r="E220" s="4">
-        <v>11.66</v>
+        <v>3.5</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G220" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B221" s="4">
-        <v>3.42</v>
+        <v>0.182</v>
       </c>
       <c r="C221" s="4">
-        <v>3.5</v>
+        <v>0.188</v>
       </c>
       <c r="D221" s="4">
-        <v>3.42</v>
+        <v>0.182</v>
       </c>
       <c r="E221" s="4">
-        <v>3.5</v>
+        <v>0.184</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B222" s="4">
-        <v>0.182</v>
+        <v>12.8</v>
       </c>
       <c r="C222" s="4">
-        <v>0.188</v>
+        <v>13.08</v>
       </c>
       <c r="D222" s="4">
-        <v>0.182</v>
+        <v>12.8</v>
       </c>
       <c r="E222" s="4">
-        <v>0.184</v>
+        <v>13</v>
       </c>
       <c r="F222" s="4" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G222" s="4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B223" s="4">
-        <v>12.8</v>
+        <v>1.4</v>
       </c>
       <c r="C223" s="4">
-        <v>13.08</v>
+        <v>1.41</v>
       </c>
       <c r="D223" s="4">
-        <v>12.8</v>
+        <v>1.4</v>
       </c>
       <c r="E223" s="4">
-        <v>13</v>
+        <v>1.4</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G223" s="4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B224" s="4">
-        <v>1.4</v>
+        <v>5.48</v>
       </c>
       <c r="C224" s="4">
-        <v>1.41</v>
+        <v>5.49</v>
       </c>
       <c r="D224" s="4">
-        <v>1.4</v>
+        <v>5.2</v>
       </c>
       <c r="E224" s="4">
-        <v>1.4</v>
+        <v>5.45</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B225" s="4">
-        <v>5.48</v>
+        <v>18.940000000000001</v>
       </c>
       <c r="C225" s="4">
-        <v>5.49</v>
+        <v>19.260000000000002</v>
       </c>
       <c r="D225" s="4">
-        <v>5.2</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="E225" s="4">
-        <v>5.45</v>
+        <v>19</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B226" s="4">
-        <v>18.940000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="C226" s="4">
-        <v>19.260000000000002</v>
+        <v>3.3</v>
       </c>
       <c r="D226" s="4">
-        <v>18.600000000000001</v>
+        <v>3.19</v>
       </c>
       <c r="E226" s="4">
-        <v>19</v>
+        <v>3.19</v>
       </c>
       <c r="F226" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B227" s="4">
-        <v>3.3</v>
+        <v>100.7</v>
       </c>
       <c r="C227" s="4">
-        <v>3.3</v>
+        <v>100.7</v>
       </c>
       <c r="D227" s="4">
-        <v>3.19</v>
+        <v>100.7</v>
       </c>
       <c r="E227" s="4">
-        <v>3.19</v>
-      </c>
-      <c r="F227" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="G227" s="4" t="s">
-        <v>495</v>
+        <v>100.7</v>
+      </c>
+      <c r="F227" s="4">
+        <v>0</v>
+      </c>
+      <c r="G227" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B228" s="4">
-        <v>100.7</v>
+        <v>97</v>
       </c>
       <c r="C228" s="4">
-        <v>100.7</v>
+        <v>97</v>
       </c>
       <c r="D228" s="4">
-        <v>100.7</v>
+        <v>97</v>
       </c>
       <c r="E228" s="4">
-        <v>100.7</v>
+        <v>97</v>
       </c>
       <c r="F228" s="4">
         <v>0</v>
@@ -8028,19 +8019,19 @@
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B229" s="4">
-        <v>97</v>
+        <v>99.7</v>
       </c>
       <c r="C229" s="4">
-        <v>97</v>
+        <v>99.7</v>
       </c>
       <c r="D229" s="4">
-        <v>97</v>
+        <v>99.7</v>
       </c>
       <c r="E229" s="4">
-        <v>97</v>
+        <v>99.7</v>
       </c>
       <c r="F229" s="4">
         <v>0</v>
@@ -8051,19 +8042,19 @@
     </row>
     <row r="230" spans="1:7">
       <c r="A230" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B230" s="4">
-        <v>99.7</v>
+        <v>97.75</v>
       </c>
       <c r="C230" s="4">
-        <v>99.7</v>
+        <v>97.75</v>
       </c>
       <c r="D230" s="4">
-        <v>99.7</v>
+        <v>97.75</v>
       </c>
       <c r="E230" s="4">
-        <v>99.7</v>
+        <v>97.75</v>
       </c>
       <c r="F230" s="4">
         <v>0</v>
@@ -8074,48 +8065,48 @@
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B231" s="4">
-        <v>97.75</v>
+        <v>0.7</v>
       </c>
       <c r="C231" s="4">
-        <v>97.75</v>
+        <v>0.7</v>
       </c>
       <c r="D231" s="4">
-        <v>97.75</v>
+        <v>0.7</v>
       </c>
       <c r="E231" s="4">
-        <v>97.75</v>
-      </c>
-      <c r="F231" s="4">
-        <v>0</v>
+        <v>0.7</v>
+      </c>
+      <c r="F231" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="G231" s="4">
-        <v>0</v>
+        <v>700</v>
       </c>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B232" s="4">
+        <v>5.48</v>
+      </c>
+      <c r="C232" s="4">
+        <v>5.61</v>
+      </c>
+      <c r="D232" s="4">
+        <v>5.48</v>
+      </c>
+      <c r="E232" s="4">
+        <v>5.59</v>
+      </c>
+      <c r="F232" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="B232" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="C232" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="D232" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="E232" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="F232" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="G232" s="4">
-        <v>700</v>
+      <c r="G232" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -8123,42 +8114,42 @@
         <v>501</v>
       </c>
       <c r="B233" s="4">
-        <v>5.48</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="C233" s="4">
-        <v>5.61</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="D233" s="4">
-        <v>5.48</v>
+        <v>1.96</v>
       </c>
       <c r="E233" s="4">
-        <v>5.59</v>
+        <v>2</v>
       </c>
       <c r="F233" s="4" t="s">
         <v>502</v>
       </c>
       <c r="G233" s="4" t="s">
-        <v>62</v>
+        <v>503</v>
       </c>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B234" s="4">
-        <v>2.0099999999999998</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C234" s="4">
-        <v>2.0699999999999998</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D234" s="4">
-        <v>1.96</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E234" s="4">
-        <v>2</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F234" s="4" t="s">
-        <v>504</v>
+        <v>90</v>
       </c>
       <c r="G234" s="4" t="s">
         <v>505</v>
@@ -8169,200 +8160,200 @@
         <v>506</v>
       </c>
       <c r="B235" s="4">
-        <v>0.56000000000000005</v>
+        <v>7</v>
       </c>
       <c r="C235" s="4">
-        <v>0.56000000000000005</v>
+        <v>7</v>
       </c>
       <c r="D235" s="4">
-        <v>0.56000000000000005</v>
+        <v>7</v>
       </c>
       <c r="E235" s="4">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F235" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G235" s="4" t="s">
-        <v>507</v>
+        <v>7</v>
+      </c>
+      <c r="F235" s="4">
+        <v>0</v>
+      </c>
+      <c r="G235" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:7">
       <c r="A236" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="B236" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C236" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D236" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="E236" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="F236" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="G236" s="4" t="s">
-        <v>225</v>
+        <v>507</v>
+      </c>
+      <c r="B236" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="C236" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="D236" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E236" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F236" s="4">
+        <v>0</v>
+      </c>
+      <c r="G236" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:7">
       <c r="A237" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B237" s="4">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="C237" s="4">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D237" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="E237" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="F237" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="B237" s="4">
-        <v>7</v>
-      </c>
-      <c r="C237" s="4">
-        <v>7</v>
-      </c>
-      <c r="D237" s="4">
-        <v>7</v>
-      </c>
-      <c r="E237" s="4">
-        <v>7</v>
-      </c>
-      <c r="F237" s="4">
-        <v>0</v>
-      </c>
-      <c r="G237" s="4">
-        <v>0</v>
+      <c r="G237" s="4" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="238" spans="1:7">
       <c r="A238" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B238" s="4">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="C238" s="4">
-        <v>0.3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="D238" s="4">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="E238" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="F238" s="4">
-        <v>0</v>
-      </c>
-      <c r="G238" s="4">
-        <v>0</v>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F238" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G238" s="4" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="239" spans="1:7">
       <c r="A239" s="3" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B239" s="4">
-        <v>1.0999999999999999E-2</v>
+        <v>0.72</v>
       </c>
       <c r="C239" s="4">
-        <v>1.0999999999999999E-2</v>
+        <v>0.72</v>
       </c>
       <c r="D239" s="4">
-        <v>0.01</v>
+        <v>0.69</v>
       </c>
       <c r="E239" s="4">
-        <v>0.01</v>
+        <v>0.69</v>
       </c>
       <c r="F239" s="4" t="s">
-        <v>512</v>
+        <v>420</v>
       </c>
       <c r="G239" s="4" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B240" s="4">
-        <v>0.01</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="C240" s="4">
-        <v>1.0999999999999999E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="D240" s="4">
-        <v>0.01</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="E240" s="4">
-        <v>1.0999999999999999E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="F240" s="4" t="s">
-        <v>287</v>
+        <v>516</v>
       </c>
       <c r="G240" s="4" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B241" s="4">
-        <v>0.72</v>
+        <v>1.86</v>
       </c>
       <c r="C241" s="4">
-        <v>0.72</v>
+        <v>1.86</v>
       </c>
       <c r="D241" s="4">
-        <v>0.69</v>
+        <v>1.86</v>
       </c>
       <c r="E241" s="4">
-        <v>0.69</v>
-      </c>
-      <c r="F241" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="G241" s="4" t="s">
-        <v>517</v>
+        <v>1.86</v>
+      </c>
+      <c r="F241" s="4">
+        <v>0</v>
+      </c>
+      <c r="G241" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B242" s="4">
-        <v>9.4999999999999998E-3</v>
+        <v>5.8</v>
       </c>
       <c r="C242" s="4">
-        <v>9.5999999999999992E-3</v>
+        <v>5.8</v>
       </c>
       <c r="D242" s="4">
-        <v>9.4999999999999998E-3</v>
+        <v>5.79</v>
       </c>
       <c r="E242" s="4">
-        <v>9.5999999999999992E-3</v>
+        <v>5.8</v>
       </c>
       <c r="F242" s="4" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G242" s="4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B243" s="4">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="C243" s="4">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="D243" s="4">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="E243" s="4">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="F243" s="4">
         <v>0</v>
@@ -8373,206 +8364,206 @@
     </row>
     <row r="244" spans="1:7">
       <c r="A244" s="3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B244" s="4">
-        <v>5.8</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="C244" s="4">
-        <v>5.8</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="D244" s="4">
-        <v>5.79</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="E244" s="4">
-        <v>5.8</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="F244" s="4" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G244" s="4" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B245" s="4">
-        <v>1.83</v>
+        <v>12.92</v>
       </c>
       <c r="C245" s="4">
-        <v>1.83</v>
+        <v>12.92</v>
       </c>
       <c r="D245" s="4">
-        <v>1.83</v>
+        <v>12.92</v>
       </c>
       <c r="E245" s="4">
-        <v>1.83</v>
-      </c>
-      <c r="F245" s="4">
-        <v>0</v>
-      </c>
-      <c r="G245" s="4">
-        <v>0</v>
+        <v>12.92</v>
+      </c>
+      <c r="F245" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="G245" s="4" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" s="3" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B246" s="4">
-        <v>9.6999999999999993</v>
+        <v>2.4</v>
       </c>
       <c r="C246" s="4">
-        <v>9.9499999999999993</v>
+        <v>2.4</v>
       </c>
       <c r="D246" s="4">
-        <v>9.6999999999999993</v>
+        <v>2.35</v>
       </c>
       <c r="E246" s="4">
-        <v>9.9499999999999993</v>
+        <v>2.35</v>
       </c>
       <c r="F246" s="4" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="G246" s="4" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" s="3" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B247" s="4">
-        <v>12.92</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="C247" s="4">
-        <v>12.92</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="D247" s="4">
-        <v>12.92</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="E247" s="4">
-        <v>12.92</v>
-      </c>
-      <c r="F247" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="G247" s="4" t="s">
-        <v>530</v>
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="F247" s="4">
+        <v>0</v>
+      </c>
+      <c r="G247" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B248" s="4">
-        <v>2.4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C248" s="4">
-        <v>2.4</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="D248" s="4">
-        <v>2.35</v>
+        <v>4.59</v>
       </c>
       <c r="E248" s="4">
-        <v>2.35</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F248" s="4" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G248" s="4" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="249" spans="1:7">
       <c r="A249" s="3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B249" s="4">
-        <v>0.20499999999999999</v>
+        <v>34.450000000000003</v>
       </c>
       <c r="C249" s="4">
-        <v>0.20499999999999999</v>
+        <v>34.5</v>
       </c>
       <c r="D249" s="4">
-        <v>0.20499999999999999</v>
+        <v>33.85</v>
       </c>
       <c r="E249" s="4">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="F249" s="4">
-        <v>0</v>
-      </c>
-      <c r="G249" s="4">
-        <v>0</v>
+        <v>33.85</v>
+      </c>
+      <c r="F249" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="G249" s="4" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="250" spans="1:7">
       <c r="A250" s="3" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B250" s="4">
-        <v>4.5999999999999996</v>
+        <v>0.3</v>
       </c>
       <c r="C250" s="4">
-        <v>4.6100000000000003</v>
+        <v>0.3</v>
       </c>
       <c r="D250" s="4">
-        <v>4.59</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E250" s="4">
-        <v>4.5999999999999996</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F250" s="4" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="G250" s="4" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="251" spans="1:7">
       <c r="A251" s="3" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B251" s="4">
-        <v>34.450000000000003</v>
+        <v>1.4</v>
       </c>
       <c r="C251" s="4">
-        <v>34.5</v>
+        <v>1.4</v>
       </c>
       <c r="D251" s="4">
-        <v>33.85</v>
+        <v>1.4</v>
       </c>
       <c r="E251" s="4">
-        <v>33.85</v>
-      </c>
-      <c r="F251" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="G251" s="4" t="s">
-        <v>540</v>
+        <v>1.4</v>
+      </c>
+      <c r="F251" s="4">
+        <v>0</v>
+      </c>
+      <c r="G251" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B252" s="4">
-        <v>0.3</v>
+        <v>0.375</v>
       </c>
       <c r="C252" s="4">
-        <v>0.3</v>
+        <v>0.375</v>
       </c>
       <c r="D252" s="4">
-        <v>0.28000000000000003</v>
+        <v>0.375</v>
       </c>
       <c r="E252" s="4">
-        <v>0.28999999999999998</v>
+        <v>0.375</v>
       </c>
       <c r="F252" s="4" t="s">
-        <v>542</v>
+        <v>264</v>
       </c>
       <c r="G252" s="4" t="s">
         <v>543</v>
@@ -8583,200 +8574,200 @@
         <v>544</v>
       </c>
       <c r="B253" s="4">
-        <v>1.4</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="C253" s="4">
-        <v>1.4</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="D253" s="4">
-        <v>1.4</v>
+        <v>19</v>
       </c>
       <c r="E253" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="F253" s="4">
-        <v>0</v>
-      </c>
-      <c r="G253" s="4">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="F253" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="G253" s="4" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="254" spans="1:7">
       <c r="A254" s="3" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B254" s="4">
-        <v>0.375</v>
+        <v>0.81</v>
       </c>
       <c r="C254" s="4">
-        <v>0.375</v>
+        <v>0.82</v>
       </c>
       <c r="D254" s="4">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="E254" s="4">
-        <v>0.375</v>
+        <v>0.81</v>
       </c>
       <c r="F254" s="4" t="s">
-        <v>266</v>
+        <v>548</v>
       </c>
       <c r="G254" s="4" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="255" spans="1:7">
       <c r="A255" s="3" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B255" s="4">
-        <v>19.100000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="C255" s="4">
-        <v>19.100000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="D255" s="4">
-        <v>19</v>
+        <v>7.2</v>
       </c>
       <c r="E255" s="4">
-        <v>19</v>
+        <v>7.2</v>
       </c>
       <c r="F255" s="4" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="G255" s="4" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="256" spans="1:7">
       <c r="A256" s="3" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="B256" s="4">
-        <v>0.81</v>
+        <v>0.47</v>
       </c>
       <c r="C256" s="4">
-        <v>0.82</v>
+        <v>0.47</v>
       </c>
       <c r="D256" s="4">
-        <v>0.8</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="E256" s="4">
-        <v>0.81</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="F256" s="4" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="G256" s="4" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="257" spans="1:7">
       <c r="A257" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="B257" s="4">
-        <v>7.3</v>
+        <v>5.4</v>
       </c>
       <c r="C257" s="4">
-        <v>7.3</v>
+        <v>5.4</v>
       </c>
       <c r="D257" s="4">
-        <v>7.2</v>
+        <v>5.38</v>
       </c>
       <c r="E257" s="4">
-        <v>7.2</v>
+        <v>5.38</v>
       </c>
       <c r="F257" s="4" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="G257" s="4" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="258" spans="1:7">
       <c r="A258" s="3" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="B258" s="4">
-        <v>0.47</v>
+        <v>18.7</v>
       </c>
       <c r="C258" s="4">
-        <v>0.47</v>
+        <v>18.7</v>
       </c>
       <c r="D258" s="4">
-        <v>0.46500000000000002</v>
+        <v>18.5</v>
       </c>
       <c r="E258" s="4">
-        <v>0.46500000000000002</v>
+        <v>18.7</v>
       </c>
       <c r="F258" s="4" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="G258" s="4" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="259" spans="1:7">
       <c r="A259" s="3" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B259" s="4">
-        <v>5.4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C259" s="4">
-        <v>5.4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D259" s="4">
-        <v>5.38</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E259" s="4">
-        <v>5.38</v>
-      </c>
-      <c r="F259" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="G259" s="4" t="s">
-        <v>561</v>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F259" s="4">
+        <v>0</v>
+      </c>
+      <c r="G259" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:7">
       <c r="A260" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B260" s="4">
-        <v>18.7</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="C260" s="4">
-        <v>18.7</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="D260" s="4">
-        <v>18.5</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="E260" s="4">
-        <v>18.7</v>
-      </c>
-      <c r="F260" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="G260" s="4" t="s">
-        <v>564</v>
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="F260" s="4">
+        <v>0</v>
+      </c>
+      <c r="G260" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:7">
       <c r="A261" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B261" s="4">
-        <v>4.9000000000000004</v>
+        <v>100.4</v>
       </c>
       <c r="C261" s="4">
-        <v>4.9000000000000004</v>
+        <v>100.4</v>
       </c>
       <c r="D261" s="4">
-        <v>4.9000000000000004</v>
+        <v>100.4</v>
       </c>
       <c r="E261" s="4">
-        <v>4.9000000000000004</v>
+        <v>100.4</v>
       </c>
       <c r="F261" s="4">
         <v>0</v>
@@ -8787,25 +8778,25 @@
     </row>
     <row r="262" spans="1:7">
       <c r="A262" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="B262" s="4">
+        <v>67.95</v>
+      </c>
+      <c r="C262" s="4">
+        <v>67.95</v>
+      </c>
+      <c r="D262" s="4">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="E262" s="4">
+        <v>67.95</v>
+      </c>
+      <c r="F262" s="4">
+        <v>680</v>
+      </c>
+      <c r="G262" s="4" t="s">
         <v>566</v>
-      </c>
-      <c r="B262" s="4">
-        <v>8.4700000000000006</v>
-      </c>
-      <c r="C262" s="4">
-        <v>8.4700000000000006</v>
-      </c>
-      <c r="D262" s="4">
-        <v>8.4700000000000006</v>
-      </c>
-      <c r="E262" s="4">
-        <v>8.4700000000000006</v>
-      </c>
-      <c r="F262" s="4">
-        <v>0</v>
-      </c>
-      <c r="G262" s="4">
-        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -8813,85 +8804,85 @@
         <v>567</v>
       </c>
       <c r="B263" s="4">
-        <v>100.4</v>
+        <v>333</v>
       </c>
       <c r="C263" s="4">
-        <v>100.4</v>
+        <v>344.6</v>
       </c>
       <c r="D263" s="4">
-        <v>100.4</v>
+        <v>320</v>
       </c>
       <c r="E263" s="4">
-        <v>100.4</v>
-      </c>
-      <c r="F263" s="4">
-        <v>0</v>
-      </c>
-      <c r="G263" s="4">
-        <v>0</v>
+        <v>325</v>
+      </c>
+      <c r="F263" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="G263" s="4" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="264" spans="1:7">
       <c r="A264" s="3" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B264" s="4">
-        <v>67.95</v>
+        <v>100</v>
       </c>
       <c r="C264" s="4">
-        <v>67.95</v>
+        <v>100</v>
       </c>
       <c r="D264" s="4">
-        <v>64.900000000000006</v>
+        <v>100</v>
       </c>
       <c r="E264" s="4">
-        <v>67.95</v>
+        <v>100</v>
       </c>
       <c r="F264" s="4">
-        <v>680</v>
-      </c>
-      <c r="G264" s="4" t="s">
-        <v>569</v>
+        <v>0</v>
+      </c>
+      <c r="G264" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:7">
       <c r="A265" s="3" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B265" s="4">
-        <v>333</v>
+        <v>7.3</v>
       </c>
       <c r="C265" s="4">
-        <v>344.6</v>
+        <v>7.3</v>
       </c>
       <c r="D265" s="4">
-        <v>320</v>
+        <v>7.3</v>
       </c>
       <c r="E265" s="4">
-        <v>325</v>
-      </c>
-      <c r="F265" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="G265" s="4" t="s">
-        <v>572</v>
+        <v>7.3</v>
+      </c>
+      <c r="F265" s="4">
+        <v>0</v>
+      </c>
+      <c r="G265" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:7">
       <c r="A266" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B266" s="4">
-        <v>100</v>
+        <v>5.4</v>
       </c>
       <c r="C266" s="4">
-        <v>100</v>
+        <v>5.4</v>
       </c>
       <c r="D266" s="4">
-        <v>100</v>
+        <v>5.4</v>
       </c>
       <c r="E266" s="4">
-        <v>100</v>
+        <v>5.4</v>
       </c>
       <c r="F266" s="4">
         <v>0</v>
@@ -8902,206 +8893,206 @@
     </row>
     <row r="267" spans="1:7">
       <c r="A267" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="B267" s="4">
+        <v>6.59</v>
+      </c>
+      <c r="C267" s="4">
+        <v>7.89</v>
+      </c>
+      <c r="D267" s="4">
+        <v>6.59</v>
+      </c>
+      <c r="E267" s="4">
+        <v>7.89</v>
+      </c>
+      <c r="F267" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="B267" s="4">
-        <v>7.3</v>
-      </c>
-      <c r="C267" s="4">
-        <v>7.3</v>
-      </c>
-      <c r="D267" s="4">
-        <v>7.3</v>
-      </c>
-      <c r="E267" s="4">
-        <v>7.3</v>
-      </c>
-      <c r="F267" s="4">
-        <v>0</v>
-      </c>
-      <c r="G267" s="4">
-        <v>0</v>
+      <c r="G267" s="4" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="268" spans="1:7">
       <c r="A268" s="3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B268" s="4">
-        <v>5.4</v>
+        <v>1.55</v>
       </c>
       <c r="C268" s="4">
-        <v>5.4</v>
+        <v>1.59</v>
       </c>
       <c r="D268" s="4">
-        <v>5.4</v>
+        <v>1.53</v>
       </c>
       <c r="E268" s="4">
-        <v>5.4</v>
-      </c>
-      <c r="F268" s="4">
-        <v>0</v>
-      </c>
-      <c r="G268" s="4">
-        <v>0</v>
+        <v>1.53</v>
+      </c>
+      <c r="F268" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="G268" s="4" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="269" spans="1:7">
       <c r="A269" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="B269" s="4">
-        <v>6.59</v>
-      </c>
-      <c r="C269" s="4">
-        <v>7.89</v>
-      </c>
-      <c r="D269" s="4">
-        <v>6.59</v>
-      </c>
-      <c r="E269" s="4">
-        <v>7.89</v>
-      </c>
-      <c r="F269" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="G269" s="4" t="s">
         <v>578</v>
+      </c>
+      <c r="B269" s="5">
+        <v>1000</v>
+      </c>
+      <c r="C269" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D269" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E269" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F269" s="4">
+        <v>0</v>
+      </c>
+      <c r="G269" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:7">
       <c r="A270" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="B270" s="4">
-        <v>1.55</v>
-      </c>
-      <c r="C270" s="4">
-        <v>1.59</v>
-      </c>
-      <c r="D270" s="4">
-        <v>1.53</v>
-      </c>
-      <c r="E270" s="4">
-        <v>1.53</v>
-      </c>
-      <c r="F270" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="G270" s="4" t="s">
-        <v>273</v>
+      <c r="B270" s="5">
+        <v>1027</v>
+      </c>
+      <c r="C270" s="5">
+        <v>1027</v>
+      </c>
+      <c r="D270" s="5">
+        <v>1027</v>
+      </c>
+      <c r="E270" s="5">
+        <v>1027</v>
+      </c>
+      <c r="F270" s="4">
+        <v>0</v>
+      </c>
+      <c r="G270" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:7">
       <c r="A271" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="B271" s="5">
+        <v>1010</v>
+      </c>
+      <c r="C271" s="5">
+        <v>1015</v>
+      </c>
+      <c r="D271" s="5">
+        <v>1005</v>
+      </c>
+      <c r="E271" s="5">
+        <v>1010</v>
+      </c>
+      <c r="F271" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="B271" s="5">
-        <v>1000</v>
-      </c>
-      <c r="C271" s="5">
-        <v>1000</v>
-      </c>
-      <c r="D271" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E271" s="5">
-        <v>1000</v>
-      </c>
-      <c r="F271" s="4">
-        <v>0</v>
-      </c>
-      <c r="G271" s="4">
-        <v>0</v>
+      <c r="G271" s="4" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="272" spans="1:7">
       <c r="A272" s="3" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B272" s="5">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="C272" s="5">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="D272" s="5">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="E272" s="5">
-        <v>1027</v>
-      </c>
-      <c r="F272" s="4">
-        <v>0</v>
-      </c>
-      <c r="G272" s="4">
-        <v>0</v>
+        <v>1020</v>
+      </c>
+      <c r="F272" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="G272" s="4" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="273" spans="1:7">
       <c r="A273" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="B273" s="5">
-        <v>1010</v>
-      </c>
-      <c r="C273" s="5">
-        <v>1015</v>
-      </c>
-      <c r="D273" s="5">
-        <v>1005</v>
-      </c>
-      <c r="E273" s="5">
-        <v>1010</v>
+        <v>586</v>
+      </c>
+      <c r="B273" s="4">
+        <v>1.93</v>
+      </c>
+      <c r="C273" s="4">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D273" s="4">
+        <v>1.93</v>
+      </c>
+      <c r="E273" s="4">
+        <v>2.0499999999999998</v>
       </c>
       <c r="F273" s="4" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="G273" s="4" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="274" spans="1:7">
       <c r="A274" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="B274" s="5">
-        <v>1020</v>
-      </c>
-      <c r="C274" s="5">
-        <v>1025</v>
-      </c>
-      <c r="D274" s="5">
-        <v>1020</v>
-      </c>
-      <c r="E274" s="5">
-        <v>1020</v>
-      </c>
-      <c r="F274" s="4" t="s">
-        <v>587</v>
-      </c>
-      <c r="G274" s="4" t="s">
-        <v>588</v>
+        <v>589</v>
+      </c>
+      <c r="B274" s="4">
+        <v>2.29</v>
+      </c>
+      <c r="C274" s="4">
+        <v>2.29</v>
+      </c>
+      <c r="D274" s="4">
+        <v>2.29</v>
+      </c>
+      <c r="E274" s="4">
+        <v>2.29</v>
+      </c>
+      <c r="F274" s="4">
+        <v>0</v>
+      </c>
+      <c r="G274" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:7">
       <c r="A275" s="3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B275" s="4">
-        <v>1.93</v>
+        <v>57</v>
       </c>
       <c r="C275" s="4">
-        <v>2.0499999999999998</v>
+        <v>57</v>
       </c>
       <c r="D275" s="4">
-        <v>1.93</v>
+        <v>56.95</v>
       </c>
       <c r="E275" s="4">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="F275" s="4" t="s">
-        <v>590</v>
+        <v>56.95</v>
+      </c>
+      <c r="F275" s="4">
+        <v>560</v>
       </c>
       <c r="G275" s="4" t="s">
         <v>591</v>
@@ -9112,226 +9103,226 @@
         <v>592</v>
       </c>
       <c r="B276" s="4">
-        <v>2.29</v>
+        <v>156.6</v>
       </c>
       <c r="C276" s="4">
-        <v>2.29</v>
+        <v>159.6</v>
       </c>
       <c r="D276" s="4">
-        <v>2.29</v>
+        <v>156</v>
       </c>
       <c r="E276" s="4">
-        <v>2.29</v>
-      </c>
-      <c r="F276" s="4">
-        <v>0</v>
-      </c>
-      <c r="G276" s="4">
-        <v>0</v>
+        <v>159.6</v>
+      </c>
+      <c r="F276" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="G276" s="4" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="277" spans="1:7">
       <c r="A277" s="3" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B277" s="4">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="C277" s="4">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="D277" s="4">
-        <v>56.95</v>
+        <v>100</v>
       </c>
       <c r="E277" s="4">
-        <v>56.95</v>
+        <v>100</v>
       </c>
       <c r="F277" s="4">
-        <v>560</v>
-      </c>
-      <c r="G277" s="4" t="s">
-        <v>594</v>
+        <v>0</v>
+      </c>
+      <c r="G277" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:7">
       <c r="A278" s="3" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B278" s="4">
-        <v>156.6</v>
+        <v>0.33</v>
       </c>
       <c r="C278" s="4">
-        <v>159.6</v>
+        <v>0.33</v>
       </c>
       <c r="D278" s="4">
-        <v>156</v>
+        <v>0.33</v>
       </c>
       <c r="E278" s="4">
-        <v>159.6</v>
-      </c>
-      <c r="F278" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="G278" s="4" t="s">
-        <v>597</v>
+        <v>0.33</v>
+      </c>
+      <c r="F278" s="4">
+        <v>0</v>
+      </c>
+      <c r="G278" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:7">
       <c r="A279" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="B279" s="4">
+        <v>2.85</v>
+      </c>
+      <c r="C279" s="4">
+        <v>2.89</v>
+      </c>
+      <c r="D279" s="4">
+        <v>2.75</v>
+      </c>
+      <c r="E279" s="4">
+        <v>2.87</v>
+      </c>
+      <c r="F279" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="B279" s="4">
-        <v>100</v>
-      </c>
-      <c r="C279" s="4">
-        <v>100</v>
-      </c>
-      <c r="D279" s="4">
-        <v>100</v>
-      </c>
-      <c r="E279" s="4">
-        <v>100</v>
-      </c>
-      <c r="F279" s="4">
-        <v>0</v>
-      </c>
-      <c r="G279" s="4">
-        <v>0</v>
+      <c r="G279" s="4" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="280" spans="1:7">
       <c r="A280" s="3" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B280" s="4">
-        <v>0.33</v>
+        <v>7</v>
       </c>
       <c r="C280" s="4">
-        <v>0.33</v>
+        <v>7.15</v>
       </c>
       <c r="D280" s="4">
-        <v>0.33</v>
+        <v>7</v>
       </c>
       <c r="E280" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="F280" s="4">
-        <v>0</v>
-      </c>
-      <c r="G280" s="4">
-        <v>0</v>
+        <v>7.1</v>
+      </c>
+      <c r="F280" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="G280" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="281" spans="1:7">
       <c r="A281" s="3" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B281" s="4">
-        <v>2.85</v>
+        <v>23.25</v>
       </c>
       <c r="C281" s="4">
-        <v>2.89</v>
+        <v>23.9</v>
       </c>
       <c r="D281" s="4">
-        <v>2.75</v>
+        <v>23.25</v>
       </c>
       <c r="E281" s="4">
-        <v>2.87</v>
+        <v>23.9</v>
       </c>
       <c r="F281" s="4" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="G281" s="4" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="282" spans="1:7">
       <c r="A282" s="3" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B282" s="4">
-        <v>7</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="C282" s="4">
-        <v>7.15</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="D282" s="4">
-        <v>7</v>
+        <v>0.46</v>
       </c>
       <c r="E282" s="4">
-        <v>7.1</v>
+        <v>0.46</v>
       </c>
       <c r="F282" s="4" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="G282" s="4" t="s">
-        <v>77</v>
+        <v>607</v>
       </c>
     </row>
     <row r="283" spans="1:7">
       <c r="A283" s="3" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="B283" s="4">
-        <v>23.25</v>
+        <v>5.79</v>
       </c>
       <c r="C283" s="4">
-        <v>23.9</v>
+        <v>5.81</v>
       </c>
       <c r="D283" s="4">
-        <v>23.25</v>
+        <v>5.73</v>
       </c>
       <c r="E283" s="4">
-        <v>23.9</v>
+        <v>5.73</v>
       </c>
       <c r="F283" s="4" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="G283" s="4" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="284" spans="1:7">
       <c r="A284" s="3" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="B284" s="4">
-        <v>0.46500000000000002</v>
+        <v>3.09</v>
       </c>
       <c r="C284" s="4">
-        <v>0.46500000000000002</v>
+        <v>3.09</v>
       </c>
       <c r="D284" s="4">
-        <v>0.46</v>
+        <v>3.09</v>
       </c>
       <c r="E284" s="4">
-        <v>0.46</v>
-      </c>
-      <c r="F284" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="G284" s="4" t="s">
-        <v>610</v>
+        <v>3.09</v>
+      </c>
+      <c r="F284" s="4">
+        <v>0</v>
+      </c>
+      <c r="G284" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:7">
       <c r="A285" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B285" s="4">
-        <v>5.79</v>
+        <v>3.58</v>
       </c>
       <c r="C285" s="4">
-        <v>5.81</v>
+        <v>3.58</v>
       </c>
       <c r="D285" s="4">
-        <v>5.73</v>
+        <v>3.58</v>
       </c>
       <c r="E285" s="4">
-        <v>5.73</v>
+        <v>3.58</v>
       </c>
       <c r="F285" s="4" t="s">
-        <v>612</v>
+        <v>366</v>
       </c>
       <c r="G285" s="4" t="s">
         <v>613</v>
@@ -9342,252 +9333,252 @@
         <v>614</v>
       </c>
       <c r="B286" s="4">
-        <v>3.09</v>
+        <v>15</v>
       </c>
       <c r="C286" s="4">
-        <v>3.09</v>
+        <v>15.04</v>
       </c>
       <c r="D286" s="4">
-        <v>3.09</v>
+        <v>14.88</v>
       </c>
       <c r="E286" s="4">
-        <v>3.09</v>
-      </c>
-      <c r="F286" s="4">
-        <v>0</v>
-      </c>
-      <c r="G286" s="4">
-        <v>0</v>
+        <v>14.9</v>
+      </c>
+      <c r="F286" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="G286" s="4" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="287" spans="1:7">
       <c r="A287" s="3" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B287" s="4">
-        <v>3.58</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="C287" s="4">
-        <v>3.58</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="D287" s="4">
-        <v>3.58</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="E287" s="4">
-        <v>3.58</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="F287" s="4" t="s">
-        <v>368</v>
+        <v>618</v>
       </c>
       <c r="G287" s="4" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="288" spans="1:7">
       <c r="A288" s="3" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B288" s="4">
-        <v>15</v>
+        <v>1.39</v>
       </c>
       <c r="C288" s="4">
-        <v>15.04</v>
+        <v>1.39</v>
       </c>
       <c r="D288" s="4">
-        <v>14.88</v>
+        <v>1.3</v>
       </c>
       <c r="E288" s="4">
-        <v>14.9</v>
+        <v>1.32</v>
       </c>
       <c r="F288" s="4" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="G288" s="4" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="289" spans="1:7">
       <c r="A289" s="3" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="B289" s="4">
-        <v>0.18099999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="C289" s="4">
-        <v>0.20300000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="D289" s="4">
-        <v>0.18099999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="E289" s="4">
-        <v>0.20300000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="F289" s="4" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="G289" s="4" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="290" spans="1:7">
       <c r="A290" s="3" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="B290" s="4">
-        <v>1.39</v>
+        <v>56</v>
       </c>
       <c r="C290" s="4">
-        <v>1.39</v>
+        <v>56</v>
       </c>
       <c r="D290" s="4">
-        <v>1.3</v>
+        <v>54.25</v>
       </c>
       <c r="E290" s="4">
-        <v>1.32</v>
+        <v>54.6</v>
       </c>
       <c r="F290" s="4" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="G290" s="4" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="291" spans="1:7">
       <c r="A291" s="3" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="B291" s="4">
-        <v>0.65</v>
+        <v>3.69</v>
       </c>
       <c r="C291" s="4">
-        <v>0.65</v>
+        <v>3.69</v>
       </c>
       <c r="D291" s="4">
-        <v>0.65</v>
+        <v>3.69</v>
       </c>
       <c r="E291" s="4">
-        <v>0.65</v>
-      </c>
-      <c r="F291" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="G291" s="4" t="s">
-        <v>628</v>
+        <v>3.69</v>
+      </c>
+      <c r="F291" s="4">
+        <v>0</v>
+      </c>
+      <c r="G291" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:7">
       <c r="A292" s="3" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B292" s="4">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C292" s="4">
-        <v>56</v>
+        <v>35.049999999999997</v>
       </c>
       <c r="D292" s="4">
-        <v>54.25</v>
+        <v>34.25</v>
       </c>
       <c r="E292" s="4">
-        <v>54.6</v>
+        <v>34.4</v>
       </c>
       <c r="F292" s="4" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G292" s="4" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="293" spans="1:7">
       <c r="A293" s="3" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B293" s="4">
-        <v>3.69</v>
+        <v>89.5</v>
       </c>
       <c r="C293" s="4">
-        <v>3.69</v>
+        <v>89.5</v>
       </c>
       <c r="D293" s="4">
-        <v>3.69</v>
+        <v>87</v>
       </c>
       <c r="E293" s="4">
-        <v>3.69</v>
-      </c>
-      <c r="F293" s="4">
-        <v>0</v>
-      </c>
-      <c r="G293" s="4">
-        <v>0</v>
+        <v>88.1</v>
+      </c>
+      <c r="F293" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="G293" s="4" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="294" spans="1:7">
       <c r="A294" s="3" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="B294" s="4">
-        <v>35</v>
+        <v>68.5</v>
       </c>
       <c r="C294" s="4">
-        <v>35.049999999999997</v>
+        <v>70.3</v>
       </c>
       <c r="D294" s="4">
-        <v>34.25</v>
+        <v>68.5</v>
       </c>
       <c r="E294" s="4">
-        <v>34.4</v>
-      </c>
-      <c r="F294" s="4" t="s">
-        <v>634</v>
+        <v>70</v>
+      </c>
+      <c r="F294" s="4">
+        <v>920</v>
       </c>
       <c r="G294" s="4" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="295" spans="1:7">
       <c r="A295" s="3" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B295" s="4">
-        <v>89.5</v>
+        <v>7.8E-2</v>
       </c>
       <c r="C295" s="4">
-        <v>89.5</v>
+        <v>7.8E-2</v>
       </c>
       <c r="D295" s="4">
-        <v>87</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="E295" s="4">
-        <v>88.1</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="F295" s="4" t="s">
-        <v>637</v>
+        <v>395</v>
       </c>
       <c r="G295" s="4" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="296" spans="1:7">
       <c r="A296" s="3" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B296" s="4">
-        <v>68.5</v>
+        <v>1.95</v>
       </c>
       <c r="C296" s="4">
-        <v>70.3</v>
+        <v>1.95</v>
       </c>
       <c r="D296" s="4">
-        <v>68.5</v>
+        <v>1.95</v>
       </c>
       <c r="E296" s="4">
-        <v>70</v>
+        <v>1.95</v>
       </c>
       <c r="F296" s="4">
-        <v>920</v>
-      </c>
-      <c r="G296" s="4" t="s">
-        <v>640</v>
+        <v>0</v>
+      </c>
+      <c r="G296" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -9595,246 +9586,246 @@
         <v>641</v>
       </c>
       <c r="B297" s="4">
-        <v>7.8E-2</v>
+        <v>0.86</v>
       </c>
       <c r="C297" s="4">
-        <v>7.8E-2</v>
+        <v>0.86</v>
       </c>
       <c r="D297" s="4">
-        <v>7.6999999999999999E-2</v>
+        <v>0.86</v>
       </c>
       <c r="E297" s="4">
-        <v>7.6999999999999999E-2</v>
+        <v>0.86</v>
       </c>
       <c r="F297" s="4" t="s">
-        <v>397</v>
+        <v>642</v>
       </c>
       <c r="G297" s="4" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="298" spans="1:7">
       <c r="A298" s="3" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B298" s="4">
-        <v>1.95</v>
+        <v>11.58</v>
       </c>
       <c r="C298" s="4">
-        <v>1.95</v>
+        <v>11.58</v>
       </c>
       <c r="D298" s="4">
-        <v>1.95</v>
+        <v>11.18</v>
       </c>
       <c r="E298" s="4">
-        <v>1.95</v>
-      </c>
-      <c r="F298" s="4">
-        <v>0</v>
-      </c>
-      <c r="G298" s="4">
-        <v>0</v>
+        <v>11.2</v>
+      </c>
+      <c r="F298" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="G298" s="4" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="299" spans="1:7">
       <c r="A299" s="3" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B299" s="4">
-        <v>0.86</v>
+        <v>16.8</v>
       </c>
       <c r="C299" s="4">
-        <v>0.86</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="D299" s="4">
-        <v>0.86</v>
+        <v>16.8</v>
       </c>
       <c r="E299" s="4">
-        <v>0.86</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="F299" s="4" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="G299" s="4" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="300" spans="1:7">
       <c r="A300" s="3" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="B300" s="4">
-        <v>11.58</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="C300" s="4">
-        <v>11.58</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="D300" s="4">
-        <v>11.18</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="E300" s="4">
-        <v>11.2</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F300" s="4" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="G300" s="4" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
     <row r="301" spans="1:7">
       <c r="A301" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="B301" s="4">
-        <v>16.8</v>
-      </c>
-      <c r="C301" s="4">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="D301" s="4">
-        <v>16.8</v>
-      </c>
-      <c r="E301" s="4">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="F301" s="4" t="s">
-        <v>651</v>
+        <v>653</v>
+      </c>
+      <c r="B301" s="5">
+        <v>2560</v>
+      </c>
+      <c r="C301" s="5">
+        <v>2560</v>
+      </c>
+      <c r="D301" s="5">
+        <v>2560</v>
+      </c>
+      <c r="E301" s="5">
+        <v>2560</v>
+      </c>
+      <c r="F301" s="4">
+        <v>5</v>
       </c>
       <c r="G301" s="4" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="302" spans="1:7">
       <c r="A302" s="3" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B302" s="4">
-        <v>2.5499999999999998</v>
+        <v>3.2</v>
       </c>
       <c r="C302" s="4">
-        <v>2.5499999999999998</v>
+        <v>3.2</v>
       </c>
       <c r="D302" s="4">
-        <v>2.5499999999999998</v>
+        <v>3.2</v>
       </c>
       <c r="E302" s="4">
-        <v>2.5499999999999998</v>
+        <v>3.2</v>
       </c>
       <c r="F302" s="4" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="G302" s="4" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="303" spans="1:7">
       <c r="A303" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="B303" s="5">
-        <v>2560</v>
-      </c>
-      <c r="C303" s="5">
-        <v>2560</v>
-      </c>
-      <c r="D303" s="5">
-        <v>2560</v>
-      </c>
-      <c r="E303" s="5">
-        <v>2560</v>
-      </c>
-      <c r="F303" s="4">
-        <v>5</v>
+        <v>658</v>
+      </c>
+      <c r="B303" s="4">
+        <v>914</v>
+      </c>
+      <c r="C303" s="4">
+        <v>932.5</v>
+      </c>
+      <c r="D303" s="4">
+        <v>912</v>
+      </c>
+      <c r="E303" s="4">
+        <v>930</v>
+      </c>
+      <c r="F303" s="4" t="s">
+        <v>659</v>
       </c>
       <c r="G303" s="4" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
     </row>
     <row r="304" spans="1:7">
       <c r="A304" s="3" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B304" s="4">
-        <v>3.2</v>
+        <v>94.2</v>
       </c>
       <c r="C304" s="4">
-        <v>3.2</v>
+        <v>94.2</v>
       </c>
       <c r="D304" s="4">
-        <v>3.2</v>
+        <v>93.2</v>
       </c>
       <c r="E304" s="4">
-        <v>3.2</v>
+        <v>93.85</v>
       </c>
       <c r="F304" s="4" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="G304" s="4" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
     </row>
     <row r="305" spans="1:7">
       <c r="A305" s="3" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="B305" s="4">
-        <v>914</v>
+        <v>74</v>
       </c>
       <c r="C305" s="4">
-        <v>932.5</v>
+        <v>74</v>
       </c>
       <c r="D305" s="4">
-        <v>912</v>
+        <v>74</v>
       </c>
       <c r="E305" s="4">
-        <v>930</v>
-      </c>
-      <c r="F305" s="4" t="s">
-        <v>662</v>
-      </c>
-      <c r="G305" s="4" t="s">
-        <v>663</v>
+        <v>74</v>
+      </c>
+      <c r="F305" s="4">
+        <v>0</v>
+      </c>
+      <c r="G305" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:7">
       <c r="A306" s="3" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B306" s="4">
-        <v>94.2</v>
+        <v>76.05</v>
       </c>
       <c r="C306" s="4">
-        <v>94.2</v>
+        <v>76.05</v>
       </c>
       <c r="D306" s="4">
-        <v>93.2</v>
+        <v>76.05</v>
       </c>
       <c r="E306" s="4">
-        <v>93.85</v>
-      </c>
-      <c r="F306" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="G306" s="4" t="s">
-        <v>666</v>
+        <v>76.05</v>
+      </c>
+      <c r="F306" s="4">
+        <v>0</v>
+      </c>
+      <c r="G306" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:7">
       <c r="A307" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B307" s="4">
-        <v>74</v>
+        <v>76.349999999999994</v>
       </c>
       <c r="C307" s="4">
-        <v>74</v>
+        <v>76.349999999999994</v>
       </c>
       <c r="D307" s="4">
-        <v>74</v>
+        <v>76.349999999999994</v>
       </c>
       <c r="E307" s="4">
-        <v>74</v>
+        <v>76.349999999999994</v>
       </c>
       <c r="F307" s="4">
         <v>0</v>
@@ -9845,19 +9836,19 @@
     </row>
     <row r="308" spans="1:7">
       <c r="A308" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B308" s="4">
-        <v>76.05</v>
+        <v>75.3</v>
       </c>
       <c r="C308" s="4">
-        <v>76.05</v>
+        <v>75.3</v>
       </c>
       <c r="D308" s="4">
-        <v>76.05</v>
+        <v>75.3</v>
       </c>
       <c r="E308" s="4">
-        <v>76.05</v>
+        <v>75.3</v>
       </c>
       <c r="F308" s="4">
         <v>0</v>
@@ -9868,19 +9859,19 @@
     </row>
     <row r="309" spans="1:7">
       <c r="A309" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B309" s="4">
-        <v>76.349999999999994</v>
+        <v>76.55</v>
       </c>
       <c r="C309" s="4">
-        <v>76.349999999999994</v>
+        <v>76.55</v>
       </c>
       <c r="D309" s="4">
-        <v>76.349999999999994</v>
+        <v>76.55</v>
       </c>
       <c r="E309" s="4">
-        <v>76.349999999999994</v>
+        <v>76.55</v>
       </c>
       <c r="F309" s="4">
         <v>0</v>
@@ -9891,42 +9882,42 @@
     </row>
     <row r="310" spans="1:7">
       <c r="A310" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="B310" s="4">
+        <v>75.2</v>
+      </c>
+      <c r="C310" s="4">
+        <v>75.2</v>
+      </c>
+      <c r="D310" s="4">
+        <v>75</v>
+      </c>
+      <c r="E310" s="4">
+        <v>75.05</v>
+      </c>
+      <c r="F310" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="B310" s="4">
-        <v>75.3</v>
-      </c>
-      <c r="C310" s="4">
-        <v>75.3</v>
-      </c>
-      <c r="D310" s="4">
-        <v>75.3</v>
-      </c>
-      <c r="E310" s="4">
-        <v>75.3</v>
-      </c>
-      <c r="F310" s="4">
-        <v>0</v>
-      </c>
-      <c r="G310" s="4">
-        <v>0</v>
+      <c r="G310" s="4" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="311" spans="1:7">
       <c r="A311" s="3" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B311" s="4">
-        <v>76.55</v>
+        <v>76.7</v>
       </c>
       <c r="C311" s="4">
-        <v>76.55</v>
+        <v>76.7</v>
       </c>
       <c r="D311" s="4">
-        <v>76.55</v>
+        <v>76.7</v>
       </c>
       <c r="E311" s="4">
-        <v>76.55</v>
+        <v>76.7</v>
       </c>
       <c r="F311" s="4">
         <v>0</v>
@@ -9937,157 +9928,157 @@
     </row>
     <row r="312" spans="1:7">
       <c r="A312" s="3" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B312" s="4">
-        <v>75.2</v>
+        <v>75</v>
       </c>
       <c r="C312" s="4">
-        <v>75.2</v>
+        <v>75</v>
       </c>
       <c r="D312" s="4">
         <v>75</v>
       </c>
       <c r="E312" s="4">
-        <v>75.05</v>
-      </c>
-      <c r="F312" s="4" t="s">
-        <v>673</v>
-      </c>
-      <c r="G312" s="4" t="s">
-        <v>674</v>
+        <v>75</v>
+      </c>
+      <c r="F312" s="4">
+        <v>0</v>
+      </c>
+      <c r="G312" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:7">
       <c r="A313" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="B313" s="4">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="C313" s="4">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="D313" s="4">
+        <v>75</v>
+      </c>
+      <c r="E313" s="4">
+        <v>75</v>
+      </c>
+      <c r="F313" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="B313" s="4">
-        <v>76.7</v>
-      </c>
-      <c r="C313" s="4">
-        <v>76.7</v>
-      </c>
-      <c r="D313" s="4">
-        <v>76.7</v>
-      </c>
-      <c r="E313" s="4">
-        <v>76.7</v>
-      </c>
-      <c r="F313" s="4">
-        <v>0</v>
-      </c>
-      <c r="G313" s="4">
-        <v>0</v>
+      <c r="G313" s="4" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="314" spans="1:7">
       <c r="A314" s="3" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B314" s="4">
-        <v>75</v>
+        <v>70.150000000000006</v>
       </c>
       <c r="C314" s="4">
-        <v>75</v>
+        <v>70.150000000000006</v>
       </c>
       <c r="D314" s="4">
-        <v>75</v>
+        <v>70.150000000000006</v>
       </c>
       <c r="E314" s="4">
-        <v>75</v>
-      </c>
-      <c r="F314" s="4">
-        <v>0</v>
-      </c>
-      <c r="G314" s="4">
-        <v>0</v>
+        <v>70.150000000000006</v>
+      </c>
+      <c r="F314" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="G314" s="4" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="315" spans="1:7">
       <c r="A315" s="3" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B315" s="4">
-        <v>75.099999999999994</v>
+        <v>71</v>
       </c>
       <c r="C315" s="4">
-        <v>75.099999999999994</v>
+        <v>71</v>
       </c>
       <c r="D315" s="4">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E315" s="4">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F315" s="4" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="G315" s="4" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="316" spans="1:7">
       <c r="A316" s="3" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B316" s="4">
-        <v>70.150000000000006</v>
+        <v>74</v>
       </c>
       <c r="C316" s="4">
-        <v>70.150000000000006</v>
+        <v>74</v>
       </c>
       <c r="D316" s="4">
-        <v>70.150000000000006</v>
+        <v>74</v>
       </c>
       <c r="E316" s="4">
-        <v>70.150000000000006</v>
-      </c>
-      <c r="F316" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="G316" s="4" t="s">
-        <v>681</v>
+        <v>74</v>
+      </c>
+      <c r="F316" s="4">
+        <v>0</v>
+      </c>
+      <c r="G316" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:7">
       <c r="A317" s="3" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B317" s="4">
-        <v>71</v>
+        <v>35.450000000000003</v>
       </c>
       <c r="C317" s="4">
-        <v>71</v>
+        <v>36.049999999999997</v>
       </c>
       <c r="D317" s="4">
-        <v>71</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="E317" s="4">
-        <v>71</v>
+        <v>35.5</v>
       </c>
       <c r="F317" s="4" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="G317" s="4" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="318" spans="1:7">
       <c r="A318" s="3" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B318" s="4">
-        <v>74</v>
+        <v>0.46</v>
       </c>
       <c r="C318" s="4">
-        <v>74</v>
+        <v>0.46</v>
       </c>
       <c r="D318" s="4">
-        <v>74</v>
+        <v>0.46</v>
       </c>
       <c r="E318" s="4">
-        <v>74</v>
+        <v>0.46</v>
       </c>
       <c r="F318" s="4">
         <v>0</v>
@@ -10098,42 +10089,42 @@
     </row>
     <row r="319" spans="1:7">
       <c r="A319" s="3" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B319" s="4">
-        <v>35.450000000000003</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="C319" s="4">
-        <v>36.049999999999997</v>
+        <v>9.48</v>
       </c>
       <c r="D319" s="4">
-        <v>35.200000000000003</v>
+        <v>9.34</v>
       </c>
       <c r="E319" s="4">
-        <v>35.5</v>
+        <v>9.34</v>
       </c>
       <c r="F319" s="4" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="G319" s="4" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="320" spans="1:7">
       <c r="A320" s="3" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B320" s="4">
-        <v>0.46</v>
+        <v>1.72</v>
       </c>
       <c r="C320" s="4">
-        <v>0.46</v>
+        <v>1.72</v>
       </c>
       <c r="D320" s="4">
-        <v>0.46</v>
+        <v>1.72</v>
       </c>
       <c r="E320" s="4">
-        <v>0.46</v>
+        <v>1.72</v>
       </c>
       <c r="F320" s="4">
         <v>0</v>
@@ -10144,42 +10135,42 @@
     </row>
     <row r="321" spans="1:7">
       <c r="A321" s="3" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B321" s="4">
-        <v>9.3699999999999992</v>
+        <v>1.23</v>
       </c>
       <c r="C321" s="4">
-        <v>9.48</v>
+        <v>1.23</v>
       </c>
       <c r="D321" s="4">
-        <v>9.34</v>
+        <v>1.2</v>
       </c>
       <c r="E321" s="4">
-        <v>9.34</v>
+        <v>1.22</v>
       </c>
       <c r="F321" s="4" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="G321" s="4" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="322" spans="1:7">
       <c r="A322" s="3" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B322" s="4">
-        <v>1.72</v>
+        <v>0.8</v>
       </c>
       <c r="C322" s="4">
-        <v>1.72</v>
+        <v>0.8</v>
       </c>
       <c r="D322" s="4">
-        <v>1.72</v>
+        <v>0.8</v>
       </c>
       <c r="E322" s="4">
-        <v>1.72</v>
+        <v>0.8</v>
       </c>
       <c r="F322" s="4">
         <v>0</v>
@@ -10190,114 +10181,114 @@
     </row>
     <row r="323" spans="1:7">
       <c r="A323" s="3" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B323" s="4">
-        <v>1.23</v>
+        <v>1.51</v>
       </c>
       <c r="C323" s="4">
-        <v>1.23</v>
+        <v>1.53</v>
       </c>
       <c r="D323" s="4">
-        <v>1.2</v>
+        <v>1.51</v>
       </c>
       <c r="E323" s="4">
-        <v>1.22</v>
+        <v>1.52</v>
       </c>
       <c r="F323" s="4" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="G323" s="4" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="324" spans="1:7">
       <c r="A324" s="3" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B324" s="4">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="C324" s="4">
-        <v>0.8</v>
+        <v>1.45</v>
       </c>
       <c r="D324" s="4">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="E324" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="F324" s="4">
-        <v>0</v>
-      </c>
-      <c r="G324" s="4">
-        <v>0</v>
+        <v>1.45</v>
+      </c>
+      <c r="F324" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="G324" s="4" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="325" spans="1:7">
       <c r="A325" s="3" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="B325" s="4">
-        <v>1.51</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="C325" s="4">
-        <v>1.53</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="D325" s="4">
-        <v>1.51</v>
+        <v>0.34</v>
       </c>
       <c r="E325" s="4">
-        <v>1.52</v>
+        <v>0.34</v>
       </c>
       <c r="F325" s="4" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="G325" s="4" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
     </row>
     <row r="326" spans="1:7">
       <c r="A326" s="3" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="B326" s="4">
-        <v>1.4</v>
+        <v>0.26</v>
       </c>
       <c r="C326" s="4">
-        <v>1.45</v>
+        <v>0.26</v>
       </c>
       <c r="D326" s="4">
-        <v>1.4</v>
+        <v>0.26</v>
       </c>
       <c r="E326" s="4">
-        <v>1.45</v>
-      </c>
-      <c r="F326" s="4" t="s">
-        <v>702</v>
-      </c>
-      <c r="G326" s="4" t="s">
-        <v>703</v>
+        <v>0.26</v>
+      </c>
+      <c r="F326" s="4">
+        <v>0</v>
+      </c>
+      <c r="G326" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:7">
       <c r="A327" s="3" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B327" s="4">
-        <v>0.34499999999999997</v>
+        <v>3.06</v>
       </c>
       <c r="C327" s="4">
-        <v>0.34499999999999997</v>
+        <v>3.06</v>
       </c>
       <c r="D327" s="4">
-        <v>0.34</v>
+        <v>3.06</v>
       </c>
       <c r="E327" s="4">
-        <v>0.34</v>
+        <v>3.06</v>
       </c>
       <c r="F327" s="4" t="s">
-        <v>705</v>
+        <v>235</v>
       </c>
       <c r="G327" s="4" t="s">
         <v>706</v>
@@ -10308,45 +10299,45 @@
         <v>707</v>
       </c>
       <c r="B328" s="4">
-        <v>0.26</v>
+        <v>0.96</v>
       </c>
       <c r="C328" s="4">
-        <v>0.26</v>
+        <v>0.99</v>
       </c>
       <c r="D328" s="4">
-        <v>0.26</v>
+        <v>0.96</v>
       </c>
       <c r="E328" s="4">
-        <v>0.26</v>
-      </c>
-      <c r="F328" s="4">
-        <v>0</v>
-      </c>
-      <c r="G328" s="4">
-        <v>0</v>
+        <v>0.99</v>
+      </c>
+      <c r="F328" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="G328" s="4" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="329" spans="1:7">
       <c r="A329" s="3" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B329" s="4">
-        <v>3.06</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C329" s="4">
-        <v>3.06</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D329" s="4">
-        <v>3.06</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E329" s="4">
-        <v>3.06</v>
-      </c>
-      <c r="F329" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="G329" s="4" t="s">
-        <v>709</v>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F329" s="4">
+        <v>0</v>
+      </c>
+      <c r="G329" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -10354,39 +10345,39 @@
         <v>710</v>
       </c>
       <c r="B330" s="4">
-        <v>0.96</v>
+        <v>0.214</v>
       </c>
       <c r="C330" s="4">
-        <v>0.99</v>
+        <v>0.22</v>
       </c>
       <c r="D330" s="4">
-        <v>0.96</v>
+        <v>0.214</v>
       </c>
       <c r="E330" s="4">
-        <v>0.99</v>
+        <v>0.215</v>
       </c>
       <c r="F330" s="4" t="s">
-        <v>344</v>
+        <v>711</v>
       </c>
       <c r="G330" s="4" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="331" spans="1:7">
       <c r="A331" s="3" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B331" s="4">
-        <v>0.55000000000000004</v>
+        <v>0.95</v>
       </c>
       <c r="C331" s="4">
-        <v>0.55000000000000004</v>
+        <v>0.95</v>
       </c>
       <c r="D331" s="4">
-        <v>0.55000000000000004</v>
+        <v>0.95</v>
       </c>
       <c r="E331" s="4">
-        <v>0.55000000000000004</v>
+        <v>0.95</v>
       </c>
       <c r="F331" s="4">
         <v>0</v>
@@ -10397,42 +10388,42 @@
     </row>
     <row r="332" spans="1:7">
       <c r="A332" s="3" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B332" s="4">
-        <v>0.214</v>
+        <v>1</v>
       </c>
       <c r="C332" s="4">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="D332" s="4">
-        <v>0.214</v>
+        <v>1</v>
       </c>
       <c r="E332" s="4">
-        <v>0.215</v>
-      </c>
-      <c r="F332" s="4" t="s">
-        <v>714</v>
-      </c>
-      <c r="G332" s="4" t="s">
-        <v>715</v>
+        <v>1</v>
+      </c>
+      <c r="F332" s="4">
+        <v>0</v>
+      </c>
+      <c r="G332" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:7">
       <c r="A333" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B333" s="4">
-        <v>0.95</v>
+        <v>52.8</v>
       </c>
       <c r="C333" s="4">
-        <v>0.95</v>
+        <v>52.8</v>
       </c>
       <c r="D333" s="4">
-        <v>0.95</v>
+        <v>52.8</v>
       </c>
       <c r="E333" s="4">
-        <v>0.95</v>
+        <v>52.8</v>
       </c>
       <c r="F333" s="4">
         <v>0</v>
@@ -10443,19 +10434,19 @@
     </row>
     <row r="334" spans="1:7">
       <c r="A334" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B334" s="4">
-        <v>1</v>
+        <v>52.5</v>
       </c>
       <c r="C334" s="4">
-        <v>1</v>
+        <v>52.5</v>
       </c>
       <c r="D334" s="4">
-        <v>1</v>
+        <v>52.5</v>
       </c>
       <c r="E334" s="4">
-        <v>1</v>
+        <v>52.5</v>
       </c>
       <c r="F334" s="4">
         <v>0</v>
@@ -10466,114 +10457,114 @@
     </row>
     <row r="335" spans="1:7">
       <c r="A335" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B335" s="4">
+        <v>2.75</v>
+      </c>
+      <c r="C335" s="4">
+        <v>2.79</v>
+      </c>
+      <c r="D335" s="4">
+        <v>2.72</v>
+      </c>
+      <c r="E335" s="4">
+        <v>2.75</v>
+      </c>
+      <c r="F335" s="4" t="s">
         <v>718</v>
       </c>
-      <c r="B335" s="4">
-        <v>52.8</v>
-      </c>
-      <c r="C335" s="4">
-        <v>52.8</v>
-      </c>
-      <c r="D335" s="4">
-        <v>52.8</v>
-      </c>
-      <c r="E335" s="4">
-        <v>52.8</v>
-      </c>
-      <c r="F335" s="4">
-        <v>0</v>
-      </c>
-      <c r="G335" s="4">
-        <v>0</v>
+      <c r="G335" s="4" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="336" spans="1:7">
       <c r="A336" s="3" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B336" s="4">
-        <v>52.5</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="C336" s="4">
-        <v>52.5</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D336" s="4">
-        <v>52.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E336" s="4">
-        <v>52.5</v>
-      </c>
-      <c r="F336" s="4">
-        <v>0</v>
-      </c>
-      <c r="G336" s="4">
-        <v>0</v>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F336" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="G336" s="4" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="337" spans="1:7">
       <c r="A337" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="B337" s="4">
-        <v>2.75</v>
-      </c>
-      <c r="C337" s="4">
-        <v>2.79</v>
-      </c>
-      <c r="D337" s="4">
-        <v>2.72</v>
-      </c>
-      <c r="E337" s="4">
-        <v>2.75</v>
+        <v>723</v>
+      </c>
+      <c r="B337" s="5">
+        <v>1253</v>
+      </c>
+      <c r="C337" s="5">
+        <v>1283</v>
+      </c>
+      <c r="D337" s="5">
+        <v>1241</v>
+      </c>
+      <c r="E337" s="5">
+        <v>1262</v>
       </c>
       <c r="F337" s="4" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="G337" s="4" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
     </row>
     <row r="338" spans="1:7">
       <c r="A338" s="3" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="B338" s="4">
-        <v>0.56999999999999995</v>
+        <v>43.25</v>
       </c>
       <c r="C338" s="4">
-        <v>0.57999999999999996</v>
+        <v>43.25</v>
       </c>
       <c r="D338" s="4">
-        <v>0.55000000000000004</v>
+        <v>43.25</v>
       </c>
       <c r="E338" s="4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F338" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="G338" s="4" t="s">
-        <v>725</v>
+        <v>43.25</v>
+      </c>
+      <c r="F338" s="4">
+        <v>0</v>
+      </c>
+      <c r="G338" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:7">
       <c r="A339" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="B339" s="5">
-        <v>1253</v>
-      </c>
-      <c r="C339" s="5">
-        <v>1283</v>
-      </c>
-      <c r="D339" s="5">
-        <v>1241</v>
-      </c>
-      <c r="E339" s="5">
-        <v>1262</v>
-      </c>
-      <c r="F339" s="4" t="s">
         <v>727</v>
+      </c>
+      <c r="B339" s="4">
+        <v>95.5</v>
+      </c>
+      <c r="C339" s="4">
+        <v>95.9</v>
+      </c>
+      <c r="D339" s="4">
+        <v>95.5</v>
+      </c>
+      <c r="E339" s="4">
+        <v>95.9</v>
+      </c>
+      <c r="F339" s="4">
+        <v>190</v>
       </c>
       <c r="G339" s="4" t="s">
         <v>728</v>
@@ -10584,16 +10575,16 @@
         <v>729</v>
       </c>
       <c r="B340" s="4">
-        <v>43.25</v>
+        <v>10</v>
       </c>
       <c r="C340" s="4">
-        <v>43.25</v>
+        <v>10</v>
       </c>
       <c r="D340" s="4">
-        <v>43.25</v>
+        <v>10</v>
       </c>
       <c r="E340" s="4">
-        <v>43.25</v>
+        <v>10</v>
       </c>
       <c r="F340" s="4">
         <v>0</v>
@@ -10607,111 +10598,111 @@
         <v>730</v>
       </c>
       <c r="B341" s="4">
-        <v>95.5</v>
+        <v>10</v>
       </c>
       <c r="C341" s="4">
-        <v>95.9</v>
+        <v>10</v>
       </c>
       <c r="D341" s="4">
-        <v>95.5</v>
+        <v>10</v>
       </c>
       <c r="E341" s="4">
-        <v>95.9</v>
+        <v>10</v>
       </c>
       <c r="F341" s="4">
-        <v>190</v>
-      </c>
-      <c r="G341" s="4" t="s">
-        <v>731</v>
+        <v>0</v>
+      </c>
+      <c r="G341" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:7">
       <c r="A342" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="B342" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="C342" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="D342" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="E342" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="F342" s="4" t="s">
         <v>732</v>
       </c>
-      <c r="B342" s="4">
-        <v>10</v>
-      </c>
-      <c r="C342" s="4">
-        <v>10</v>
-      </c>
-      <c r="D342" s="4">
-        <v>10</v>
-      </c>
-      <c r="E342" s="4">
-        <v>10</v>
-      </c>
-      <c r="F342" s="4">
-        <v>0</v>
-      </c>
-      <c r="G342" s="4">
-        <v>0</v>
+      <c r="G342" s="4" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="343" spans="1:7">
       <c r="A343" s="3" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B343" s="4">
-        <v>10</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="C343" s="4">
-        <v>10</v>
+        <v>84.5</v>
       </c>
       <c r="D343" s="4">
-        <v>10</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="E343" s="4">
-        <v>10</v>
-      </c>
-      <c r="F343" s="4">
-        <v>0</v>
-      </c>
-      <c r="G343" s="4">
-        <v>0</v>
+        <v>83.1</v>
+      </c>
+      <c r="F343" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="G343" s="4" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="344" spans="1:7">
       <c r="A344" s="3" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="B344" s="4">
-        <v>0.9</v>
+        <v>0.246</v>
       </c>
       <c r="C344" s="4">
-        <v>0.94</v>
+        <v>0.246</v>
       </c>
       <c r="D344" s="4">
-        <v>0.9</v>
+        <v>0.246</v>
       </c>
       <c r="E344" s="4">
-        <v>0.92</v>
-      </c>
-      <c r="F344" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="G344" s="4" t="s">
-        <v>736</v>
+        <v>0.246</v>
+      </c>
+      <c r="F344" s="4">
+        <v>0</v>
+      </c>
+      <c r="G344" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:7">
       <c r="A345" s="3" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B345" s="4">
-        <v>81.599999999999994</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="C345" s="4">
-        <v>84.5</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="D345" s="4">
-        <v>81.099999999999994</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="E345" s="4">
-        <v>83.1</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="F345" s="4" t="s">
-        <v>738</v>
+        <v>426</v>
       </c>
       <c r="G345" s="4" t="s">
         <v>739</v>
@@ -10722,137 +10713,137 @@
         <v>740</v>
       </c>
       <c r="B346" s="4">
-        <v>0.246</v>
+        <v>137</v>
       </c>
       <c r="C346" s="4">
-        <v>0.246</v>
+        <v>138.1</v>
       </c>
       <c r="D346" s="4">
-        <v>0.246</v>
+        <v>133</v>
       </c>
       <c r="E346" s="4">
-        <v>0.246</v>
-      </c>
-      <c r="F346" s="4">
-        <v>0</v>
-      </c>
-      <c r="G346" s="4">
-        <v>0</v>
+        <v>137.5</v>
+      </c>
+      <c r="F346" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="G346" s="4" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="347" spans="1:7">
       <c r="A347" s="3" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B347" s="4">
-        <v>5.4000000000000003E-3</v>
+        <v>0.74</v>
       </c>
       <c r="C347" s="4">
-        <v>5.4000000000000003E-3</v>
+        <v>0.74</v>
       </c>
       <c r="D347" s="4">
-        <v>5.4000000000000003E-3</v>
+        <v>0.74</v>
       </c>
       <c r="E347" s="4">
-        <v>5.4000000000000003E-3</v>
-      </c>
-      <c r="F347" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="G347" s="4" t="s">
-        <v>742</v>
+        <v>0.74</v>
+      </c>
+      <c r="F347" s="4">
+        <v>0</v>
+      </c>
+      <c r="G347" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:7">
       <c r="A348" s="3" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B348" s="4">
-        <v>137</v>
+        <v>0.59</v>
       </c>
       <c r="C348" s="4">
-        <v>138.1</v>
+        <v>0.6</v>
       </c>
       <c r="D348" s="4">
-        <v>133</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E348" s="4">
-        <v>137.5</v>
+        <v>0.59</v>
       </c>
       <c r="F348" s="4" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G348" s="4" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="349" spans="1:7">
       <c r="A349" s="3" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B349" s="4">
-        <v>0.74</v>
+        <v>1.49</v>
       </c>
       <c r="C349" s="4">
-        <v>0.74</v>
+        <v>1.52</v>
       </c>
       <c r="D349" s="4">
-        <v>0.74</v>
+        <v>1.48</v>
       </c>
       <c r="E349" s="4">
-        <v>0.74</v>
-      </c>
-      <c r="F349" s="4">
-        <v>0</v>
-      </c>
-      <c r="G349" s="4">
-        <v>0</v>
+        <v>1.51</v>
+      </c>
+      <c r="F349" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="G349" s="4" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="350" spans="1:7">
       <c r="A350" s="3" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="B350" s="4">
-        <v>0.59</v>
+        <v>2.68</v>
       </c>
       <c r="C350" s="4">
-        <v>0.6</v>
+        <v>2.68</v>
       </c>
       <c r="D350" s="4">
-        <v>0.57999999999999996</v>
+        <v>2.68</v>
       </c>
       <c r="E350" s="4">
-        <v>0.59</v>
-      </c>
-      <c r="F350" s="4" t="s">
-        <v>748</v>
-      </c>
-      <c r="G350" s="4" t="s">
-        <v>749</v>
+        <v>2.68</v>
+      </c>
+      <c r="F350" s="4">
+        <v>0</v>
+      </c>
+      <c r="G350" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:7">
       <c r="A351" s="3" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B351" s="4">
-        <v>1.49</v>
+        <v>1.63</v>
       </c>
       <c r="C351" s="4">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="D351" s="4">
-        <v>1.48</v>
+        <v>1.59</v>
       </c>
       <c r="E351" s="4">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="F351" s="4" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G351" s="4" t="s">
-        <v>752</v>
+        <v>10</v>
       </c>
     </row>
     <row r="352" spans="1:7">
@@ -10860,228 +10851,182 @@
         <v>753</v>
       </c>
       <c r="B352" s="4">
-        <v>2.68</v>
+        <v>0.85</v>
       </c>
       <c r="C352" s="4">
-        <v>2.68</v>
+        <v>0.85</v>
       </c>
       <c r="D352" s="4">
-        <v>2.68</v>
+        <v>0.83</v>
       </c>
       <c r="E352" s="4">
-        <v>2.68</v>
-      </c>
-      <c r="F352" s="4">
-        <v>0</v>
-      </c>
-      <c r="G352" s="4">
-        <v>0</v>
+        <v>0.84</v>
+      </c>
+      <c r="F352" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="G352" s="4" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="353" spans="1:7">
       <c r="A353" s="3" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B353" s="4">
-        <v>1.63</v>
+        <v>12.82</v>
       </c>
       <c r="C353" s="4">
-        <v>1.63</v>
+        <v>12.82</v>
       </c>
       <c r="D353" s="4">
-        <v>1.59</v>
+        <v>12.82</v>
       </c>
       <c r="E353" s="4">
-        <v>1.59</v>
-      </c>
-      <c r="F353" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="G353" s="4" t="s">
-        <v>10</v>
+        <v>12.82</v>
+      </c>
+      <c r="F353" s="4">
+        <v>0</v>
+      </c>
+      <c r="G353" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:7">
       <c r="A354" s="3" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B354" s="4">
-        <v>0.85</v>
+        <v>2.56</v>
       </c>
       <c r="C354" s="4">
-        <v>0.85</v>
+        <v>2.58</v>
       </c>
       <c r="D354" s="4">
-        <v>0.83</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="E354" s="4">
-        <v>0.84</v>
+        <v>2.56</v>
       </c>
       <c r="F354" s="4" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G354" s="4" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="355" spans="1:7">
       <c r="A355" s="3" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B355" s="4">
-        <v>12.82</v>
+        <v>0.23</v>
       </c>
       <c r="C355" s="4">
-        <v>12.82</v>
+        <v>0.23</v>
       </c>
       <c r="D355" s="4">
-        <v>12.82</v>
+        <v>0.23</v>
       </c>
       <c r="E355" s="4">
-        <v>12.82</v>
-      </c>
-      <c r="F355" s="4">
-        <v>0</v>
-      </c>
-      <c r="G355" s="4">
-        <v>0</v>
+        <v>0.23</v>
+      </c>
+      <c r="F355" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="G355" s="4" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="356" spans="1:7">
       <c r="A356" s="3" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B356" s="4">
-        <v>2.56</v>
+        <v>29.55</v>
       </c>
       <c r="C356" s="4">
-        <v>2.58</v>
+        <v>29.95</v>
       </c>
       <c r="D356" s="4">
-        <v>2.5299999999999998</v>
+        <v>29.2</v>
       </c>
       <c r="E356" s="4">
-        <v>2.56</v>
+        <v>29.5</v>
       </c>
       <c r="F356" s="4" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="G356" s="4" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="357" spans="1:7">
       <c r="A357" s="3" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B357" s="4">
-        <v>0.23</v>
+        <v>0.45</v>
       </c>
       <c r="C357" s="4">
-        <v>0.23</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="D357" s="4">
-        <v>0.23</v>
+        <v>0.45</v>
       </c>
       <c r="E357" s="4">
-        <v>0.23</v>
+        <v>0.45</v>
       </c>
       <c r="F357" s="4" t="s">
-        <v>344</v>
+        <v>264</v>
       </c>
       <c r="G357" s="4" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="358" spans="1:7">
       <c r="A358" s="3" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B358" s="4">
-        <v>29.55</v>
+        <v>0.26</v>
       </c>
       <c r="C358" s="4">
-        <v>29.95</v>
+        <v>0.27</v>
       </c>
       <c r="D358" s="4">
-        <v>29.2</v>
+        <v>0.26</v>
       </c>
       <c r="E358" s="4">
-        <v>29.5</v>
+        <v>0.27</v>
       </c>
       <c r="F358" s="4" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="G358" s="4" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="359" spans="1:7">
       <c r="A359" s="3" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B359" s="4">
-        <v>0.45</v>
+        <v>0.13</v>
       </c>
       <c r="C359" s="4">
-        <v>0.45500000000000002</v>
+        <v>0.13</v>
       </c>
       <c r="D359" s="4">
-        <v>0.45</v>
+        <v>0.13</v>
       </c>
       <c r="E359" s="4">
-        <v>0.45</v>
-      </c>
-      <c r="F359" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="G359" s="4" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7">
-      <c r="A360" s="3" t="s">
-        <v>770</v>
-      </c>
-      <c r="B360" s="4">
-        <v>0.26</v>
-      </c>
-      <c r="C360" s="4">
-        <v>0.27</v>
-      </c>
-      <c r="D360" s="4">
-        <v>0.26</v>
-      </c>
-      <c r="E360" s="4">
-        <v>0.27</v>
-      </c>
-      <c r="F360" s="4" t="s">
-        <v>771</v>
-      </c>
-      <c r="G360" s="4" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="361" spans="1:7">
-      <c r="A361" s="3" t="s">
-        <v>773</v>
-      </c>
-      <c r="B361" s="4">
         <v>0.13</v>
       </c>
-      <c r="C361" s="4">
-        <v>0.13</v>
-      </c>
-      <c r="D361" s="4">
-        <v>0.13</v>
-      </c>
-      <c r="E361" s="4">
-        <v>0.13</v>
-      </c>
-      <c r="F361" s="4">
-        <v>0</v>
-      </c>
-      <c r="G361" s="4">
+      <c r="F359" s="4">
+        <v>0</v>
+      </c>
+      <c r="G359" s="4">
         <v>0</v>
       </c>
     </row>
